--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,7 +1556,7 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1918,13 +1918,13 @@
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1939,7 +1939,7 @@
         <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1960,13 +1960,13 @@
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -3111,148 +3111,148 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="U15" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AR15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AS15" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV15" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB15" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3293,58 +3293,58 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J16" t="n">
         <v>4.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L16" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>15</v>
@@ -3356,28 +3356,28 @@
         <v>45</v>
       </c>
       <c r="AB16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.25</v>
@@ -3386,13 +3386,13 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3404,34 +3404,34 @@
         <v>150</v>
       </c>
       <c r="AR16" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS16" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AY16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB16" t="n">
         <v>250</v>
@@ -3656,54 +3656,150 @@
           <t>Seraing</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
     </row>
@@ -3921,19 +4017,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
@@ -3945,22 +4041,22 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.67</v>
@@ -3978,10 +4074,10 @@
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -4005,16 +4101,16 @@
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -4023,13 +4119,13 @@
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4038,7 +4134,7 @@
         <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4047,10 +4143,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4059,7 +4155,7 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4099,22 +4195,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4123,16 +4219,16 @@
         <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4159,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
@@ -4168,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4189,10 +4285,10 @@
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
@@ -4201,16 +4297,16 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
@@ -4991,7 +5087,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -5000,19 +5096,19 @@
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5021,10 +5117,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5033,22 +5129,22 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>21</v>
@@ -5060,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5084,7 +5180,7 @@
         <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
@@ -5099,7 +5195,7 @@
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>67</v>
@@ -5117,7 +5213,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5206,7 +5302,7 @@
         <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5221,7 +5317,7 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -5242,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5251,7 +5347,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH27" t="n">
         <v>8.5</v>
@@ -5922,7 +6018,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6268,7 +6364,7 @@
         <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
         <v>4.5</v>
@@ -6629,13 +6725,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -6728,10 +6824,10 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>19</v>
@@ -6749,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6770,7 +6866,7 @@
         <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -6810,7 +6906,7 @@
         <v>1.42</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
         <v>7.5</v>
@@ -6822,7 +6918,7 @@
         <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6831,10 +6927,10 @@
         <v>6.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q36" t="n">
         <v>1.9</v>
@@ -6855,16 +6951,16 @@
         <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X36" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>13</v>
@@ -6873,7 +6969,7 @@
         <v>35</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
         <v>8</v>
@@ -6888,22 +6984,22 @@
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI36" t="n">
         <v>50</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK36" t="n">
         <v>200</v>
       </c>
       <c r="AL36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
         <v>3.1</v>
@@ -6915,7 +7011,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR36" t="n">
         <v>50</v>
@@ -6924,7 +7020,7 @@
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU36" t="n">
         <v>8.5</v>
@@ -6933,19 +7029,19 @@
         <v>90</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX36" t="n">
         <v>45</v>
       </c>
       <c r="AY36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BA36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
@@ -6983,22 +7079,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="J37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L37" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -7007,16 +7103,16 @@
         <v>10.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q37" t="n">
         <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S37" t="n">
         <v>1.39</v>
@@ -7031,28 +7127,28 @@
         <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
       </c>
       <c r="Z37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA37" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>24</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE37" t="n">
         <v>14.5</v>
@@ -7061,58 +7157,58 @@
         <v>65</v>
       </c>
       <c r="AG37" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH37" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
         <v>45</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP37" t="n">
         <v>17</v>
       </c>
       <c r="AQ37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS37" t="n">
         <v>200</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV37" t="n">
         <v>65</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY37" t="n">
         <v>30</v>
@@ -7804,7 +7900,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O42" t="n">
         <v>1.1</v>
@@ -7813,10 +7909,10 @@
         <v>7</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="n">
         <v>1.2</v>
@@ -8520,13 +8616,13 @@
         <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8553,10 +8649,10 @@
         <v>3.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
         <v>9.5</v>
@@ -8610,7 +8706,7 @@
         <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO46" t="n">
         <v>12</v>
@@ -8652,7 +8748,7 @@
         <v>67</v>
       </c>
       <c r="BB46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC46" t="n">
         <v>451</v>
@@ -9075,22 +9171,22 @@
         <v>2.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
         <v>1.33</v>
@@ -9421,13 +9517,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H51" t="n">
         <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J51" t="n">
         <v>5.5</v>
@@ -9436,7 +9532,7 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -9505,13 +9601,13 @@
         <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -9526,7 +9622,7 @@
         <v>29</v>
       </c>
       <c r="AP51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ51" t="n">
         <v>101</v>
@@ -9544,13 +9640,13 @@
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9627,10 +9723,10 @@
         <v>7.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>2.2</v>
@@ -9785,16 +9881,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>2.4</v>
@@ -9803,10 +9899,10 @@
         <v>2.75</v>
       </c>
       <c r="M53" t="n">
+        <v>19</v>
+      </c>
+      <c r="N53" t="n">
         <v>1.03</v>
-      </c>
-      <c r="N53" t="n">
-        <v>10.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -9827,28 +9923,28 @@
         <v>3.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W53" t="n">
         <v>15</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
         <v>29</v>
       </c>
       <c r="AA53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB53" t="n">
         <v>21</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>23</v>
       </c>
       <c r="AC53" t="n">
         <v>19</v>
@@ -9884,7 +9980,7 @@
         <v>21</v>
       </c>
       <c r="AN53" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO53" t="n">
         <v>13</v>
@@ -9911,7 +10007,7 @@
         <v>41</v>
       </c>
       <c r="AW53" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX53" t="n">
         <v>12</v>
@@ -9985,10 +10081,10 @@
         <v>3.6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -10535,10 +10631,10 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10687,22 +10783,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H58" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="I58" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K58" t="n">
         <v>2.42</v>
       </c>
       <c r="L58" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -10714,7 +10810,7 @@
         <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q58" t="n">
         <v>1.65</v>
@@ -10729,7 +10825,7 @@
         <v>3.05</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V58" t="n">
         <v>1.72</v>
@@ -10738,7 +10834,7 @@
         <v>7.1</v>
       </c>
       <c r="X58" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y58" t="n">
         <v>8.5</v>
@@ -10774,10 +10870,10 @@
         <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK58" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL58" t="n">
         <v>90</v>
@@ -10789,13 +10885,13 @@
         <v>3.15</v>
       </c>
       <c r="AO58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP58" t="n">
         <v>17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR58" t="n">
         <v>45</v>
@@ -10807,13 +10903,13 @@
         <v>3.05</v>
       </c>
       <c r="AU58" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV58" t="n">
         <v>90</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX58" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -825,13 +825,13 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>8.5</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1076,7 +1076,7 @@
         <v>351</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -2019,16 +2019,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2037,10 +2037,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2061,22 +2061,22 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2100,10 +2100,10 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -2118,10 +2118,10 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2145,7 +2145,7 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2154,7 +2154,7 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
         <v>151</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>2.3</v>
@@ -2440,7 +2440,7 @@
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>2.57</v>
@@ -2580,7 +2580,7 @@
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2595,10 +2595,10 @@
         <v>3.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2613,16 +2613,16 @@
         <v>2.27</v>
       </c>
       <c r="W12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>14.5</v>
@@ -2637,34 +2637,34 @@
         <v>7.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
         <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO12" t="n">
         <v>10.25</v>
@@ -2676,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="AR12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
@@ -2691,22 +2691,22 @@
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX12" t="n">
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>75</v>
       </c>
       <c r="BA12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -3114,25 +3114,25 @@
         <v>1.82</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="K15" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -3147,73 +3147,73 @@
         <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X15" t="n">
         <v>7.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB15" t="n">
         <v>35</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="n">
         <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ15" t="n">
         <v>14.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="n">
         <v>45</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
         <v>3.55</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3225,25 +3225,25 @@
         <v>80</v>
       </c>
       <c r="AS15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AV15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ15" t="n">
         <v>150</v>
@@ -3475,19 +3475,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
@@ -3499,16 +3499,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3532,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3580,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -3595,7 +3595,7 @@
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>41</v>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>1.33</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>1.83</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3687,10 +3687,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3705,100 +3705,100 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
         <v>8</v>
       </c>
-      <c r="X18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AJ18" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AK18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS18" t="n">
         <v>201</v>
       </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
+      <c r="AT18" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX18" t="n">
-        <v>23</v>
-      </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -3835,13 +3835,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2.3</v>
@@ -3850,7 +3850,7 @@
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3922,7 +3922,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
@@ -3961,19 +3961,19 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>151</v>
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4059,28 +4059,28 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -4095,37 +4095,37 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4143,10 +4143,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4155,10 +4155,10 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
@@ -4195,22 +4195,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4219,16 +4219,16 @@
         <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4246,16 +4246,16 @@
         <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
@@ -4264,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4279,34 +4279,34 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
@@ -4315,22 +4315,22 @@
         <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4394,7 +4394,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.2</v>
@@ -4403,10 +4403,10 @@
         <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4917,22 +4917,22 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -4947,10 +4947,10 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -4971,7 +4971,7 @@
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
@@ -4983,7 +4983,7 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH25" t="n">
         <v>9</v>
@@ -5019,7 +5019,7 @@
         <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>2.63</v>
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
         <v>51</v>
@@ -5049,7 +5049,7 @@
         <v>201</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5302,7 +5302,7 @@
         <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5317,7 +5317,7 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5347,7 +5347,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
         <v>8.5</v>
@@ -5633,19 +5633,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
         <v>5.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
         <v>2.2</v>
@@ -5663,10 +5663,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="n">
         <v>1.36</v>
@@ -5684,7 +5684,7 @@
         <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
         <v>15</v>
@@ -5711,13 +5711,13 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
@@ -5735,25 +5735,25 @@
         <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR29" t="n">
         <v>101</v>
       </c>
-      <c r="AR29" t="n">
-        <v>126</v>
-      </c>
       <c r="AS29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
@@ -5771,7 +5771,7 @@
         <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB29" t="n">
         <v>126</v>
@@ -6027,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6725,13 +6725,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -6743,10 +6743,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6755,10 +6755,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6767,16 +6767,16 @@
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6791,7 +6791,7 @@
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
         <v>7.5</v>
@@ -6806,7 +6806,7 @@
         <v>251</v>
       </c>
       <c r="AH35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
@@ -6818,7 +6818,7 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -6839,7 +6839,7 @@
         <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT35" t="n">
         <v>3</v>
@@ -6854,10 +6854,10 @@
         <v>6.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
         <v>81</v>
@@ -6924,7 +6924,7 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
         <v>1.31</v>
@@ -7082,19 +7082,19 @@
         <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K37" t="n">
         <v>2.12</v>
       </c>
       <c r="L37" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -7103,7 +7103,7 @@
         <v>10.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
         <v>3.2</v>
@@ -7127,10 +7127,10 @@
         <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="X37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -7142,10 +7142,10 @@
         <v>13.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD37" t="n">
         <v>6.9</v>
@@ -7154,73 +7154,73 @@
         <v>14.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG37" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ37" t="n">
         <v>14</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN37" t="n">
         <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR37" t="n">
         <v>60</v>
       </c>
       <c r="AS37" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT37" t="n">
         <v>2.57</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW37" t="n">
         <v>6.1</v>
       </c>
       <c r="AX37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY37" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ37" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA37" t="n">
         <v>150</v>
       </c>
-      <c r="BA37" t="n">
-        <v>175</v>
-      </c>
       <c r="BB37" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7293,10 +7293,10 @@
         <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="T38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U38" t="n">
         <v>1.83</v>
@@ -7435,13 +7435,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -7453,10 +7453,10 @@
         <v>4.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
         <v>1.57</v>
@@ -7553,7 +7553,7 @@
         <v>2.2</v>
       </c>
       <c r="AU39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV39" t="n">
         <v>81</v>
@@ -7614,54 +7614,150 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>351</v>
+      </c>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
     </row>
@@ -7900,55 +7996,55 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O42" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V42" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
         <v>17</v>
@@ -7957,10 +8053,10 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
         <v>41</v>
@@ -7969,16 +8065,16 @@
         <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL42" t="n">
         <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO42" t="n">
         <v>6.5</v>
@@ -7993,13 +8089,13 @@
         <v>29</v>
       </c>
       <c r="AS42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
@@ -8008,22 +8104,22 @@
         <v>9</v>
       </c>
       <c r="AX42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
         <v>101</v>
       </c>
       <c r="BA42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8076,7 +8172,7 @@
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8112,10 +8208,10 @@
         <v>11</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
         <v>23</v>
@@ -8148,13 +8244,13 @@
         <v>15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK43" t="n">
         <v>29</v>
       </c>
       <c r="AL43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="n">
         <v>23</v>
@@ -8443,10 +8539,10 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8461,10 +8557,10 @@
         <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
         <v>1.57</v>
@@ -8491,7 +8587,7 @@
         <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
         <v>7</v>
@@ -8518,31 +8614,31 @@
         <v>41</v>
       </c>
       <c r="AL45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
         <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO45" t="n">
         <v>10</v>
       </c>
       <c r="AP45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
       </c>
       <c r="AR45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS45" t="n">
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU45" t="n">
         <v>7.5</v>
@@ -8792,19 +8888,19 @@
         <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8825,19 +8921,19 @@
         <v>1.88</v>
       </c>
       <c r="S47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
@@ -8846,31 +8942,31 @@
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB47" t="n">
         <v>34</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD47" t="n">
         <v>6.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI47" t="n">
         <v>10</v>
@@ -8879,34 +8975,34 @@
         <v>9</v>
       </c>
       <c r="AK47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
         <v>17</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO47" t="n">
         <v>19</v>
       </c>
       <c r="AP47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR47" t="n">
         <v>81</v>
       </c>
       <c r="AS47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU47" t="n">
         <v>8</v>
@@ -8915,19 +9011,19 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
@@ -8992,7 +9088,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -9156,7 +9252,7 @@
         <v>4.33</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I49" t="n">
         <v>1.65</v>
@@ -9165,10 +9261,10 @@
         <v>4.75</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -9189,19 +9285,19 @@
         <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X49" t="n">
         <v>26</v>
@@ -9219,13 +9315,13 @@
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD49" t="n">
         <v>8</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>41</v>
@@ -9234,10 +9330,10 @@
         <v>151</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ49" t="n">
         <v>8.5</v>
@@ -9246,10 +9342,10 @@
         <v>13</v>
       </c>
       <c r="AL49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN49" t="n">
         <v>6.5</v>
@@ -9258,7 +9354,7 @@
         <v>23</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>81</v>
@@ -9270,16 +9366,16 @@
         <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX49" t="n">
         <v>8.5</v>
@@ -9288,7 +9384,7 @@
         <v>17</v>
       </c>
       <c r="AZ49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA49" t="n">
         <v>41</v>
@@ -9365,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
         <v>1.29</v>
@@ -9517,10 +9613,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
         <v>1.57</v>
@@ -9529,43 +9625,43 @@
         <v>5.5</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
         <v>2.2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X51" t="n">
         <v>26</v>
@@ -9580,40 +9676,40 @@
         <v>41</v>
       </c>
       <c r="AB51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
         <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="n">
         <v>7</v>
@@ -9622,28 +9718,28 @@
         <v>29</v>
       </c>
       <c r="AP51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS51" t="n">
         <v>500</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX51" t="n">
         <v>8.5</v>
@@ -9702,19 +9798,19 @@
         <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J52" t="n">
         <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
@@ -9741,31 +9837,31 @@
         <v>2.5</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X52" t="n">
         <v>11</v>
       </c>
       <c r="Y52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
         <v>23</v>
       </c>
       <c r="AA52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD52" t="n">
         <v>6.5</v>
@@ -9780,7 +9876,7 @@
         <v>800</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI52" t="n">
         <v>13</v>
@@ -9789,13 +9885,13 @@
         <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
         <v>4.5</v>
@@ -9804,7 +9900,7 @@
         <v>15</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ52" t="n">
         <v>51</v>
@@ -10245,52 +10341,52 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
       </c>
       <c r="K55" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P55" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R55" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="S55" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T55" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="V55" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
         <v>13</v>
@@ -10299,22 +10395,22 @@
         <v>19</v>
       </c>
       <c r="Y55" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z55" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA55" t="n">
         <v>22</v>
       </c>
       <c r="AB55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE55" t="n">
         <v>11.25</v>
@@ -10326,10 +10422,10 @@
         <v>200</v>
       </c>
       <c r="AH55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI55" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.75</v>
@@ -10338,13 +10434,13 @@
         <v>22</v>
       </c>
       <c r="AL55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO55" t="n">
         <v>15.5</v>
@@ -10362,31 +10458,31 @@
         <v>175</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU55" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AX55" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY55" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AZ55" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA55" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB55" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC55" t="inlineStr"/>
       <c r="BD55" t="inlineStr"/>
@@ -10786,7 +10882,7 @@
         <v>1.33</v>
       </c>
       <c r="H58" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="I58" t="n">
         <v>7.5</v>
@@ -10795,7 +10891,7 @@
         <v>1.8</v>
       </c>
       <c r="K58" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L58" t="n">
         <v>6.9</v>
@@ -10807,7 +10903,7 @@
         <v>8.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P58" t="n">
         <v>3.9</v>
@@ -10816,7 +10912,7 @@
         <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S58" t="n">
         <v>1.33</v>
@@ -10825,7 +10921,7 @@
         <v>3.05</v>
       </c>
       <c r="U58" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>1.72</v>
@@ -10837,7 +10933,7 @@
         <v>6.3</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z58" t="n">
         <v>8.25</v>
@@ -10852,7 +10948,7 @@
         <v>8.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE58" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -804,16 +804,16 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -825,13 +825,13 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>8.5</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -947,10 +947,10 @@
         <v>1.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1804,7 +1804,7 @@
         <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1914,17 +1914,17 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1939,7 +1939,7 @@
         <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2201,13 +2201,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2219,16 +2219,16 @@
         <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -2243,10 +2243,10 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2258,7 +2258,7 @@
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -2270,10 +2270,10 @@
         <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2282,7 +2282,7 @@
         <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2392,7 +2392,7 @@
         <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
@@ -2407,10 +2407,10 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.62</v>
@@ -2509,7 +2509,7 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
@@ -2565,91 +2565,91 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W12" t="n">
         <v>8.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.75</v>
-      </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2658,55 +2658,55 @@
         <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS12" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2747,148 +2747,148 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.57</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="W13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB13" t="n">
         <v>23</v>
       </c>
-      <c r="AA13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>6.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2929,22 +2929,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.72</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="L14" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2956,19 +2956,19 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="Q14" t="n">
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S14" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
         <v>1.93</v>
@@ -2977,7 +2977,7 @@
         <v>1.78</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
         <v>6.6</v>
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -3007,67 +3007,67 @@
         <v>90</v>
       </c>
       <c r="AG14" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM14" t="n">
         <v>80</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>90</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS14" t="n">
         <v>200</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BA14" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BB14" t="n">
         <v>500</v>
@@ -3111,58 +3111,58 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L15" t="n">
         <v>4.45</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W15" t="n">
         <v>6.3</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.7</v>
-      </c>
       <c r="X15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3171,16 +3171,16 @@
         <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3189,58 +3189,58 @@
         <v>90</v>
       </c>
       <c r="AG15" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS15" t="n">
         <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV15" t="n">
         <v>80</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>32</v>
@@ -3249,10 +3249,10 @@
         <v>150</v>
       </c>
       <c r="BA15" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB15" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3293,40 +3293,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="K16" t="n">
         <v>2.18</v>
       </c>
       <c r="L16" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3341,16 +3341,16 @@
         <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
         <v>45</v>
@@ -3359,10 +3359,10 @@
         <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE16" t="n">
         <v>17.5</v>
@@ -3374,28 +3374,28 @@
         <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
         <v>32</v>
@@ -3404,7 +3404,7 @@
         <v>150</v>
       </c>
       <c r="AR16" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS16" t="n">
         <v>450</v>
@@ -3419,16 +3419,16 @@
         <v>75</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY16" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
         <v>65</v>
@@ -3478,7 +3478,7 @@
         <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>3.2</v>
@@ -3487,7 +3487,7 @@
         <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
@@ -3499,16 +3499,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
@@ -3580,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -3595,7 +3595,7 @@
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>41</v>
@@ -3607,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3687,10 +3687,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3705,100 +3705,100 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>29</v>
+      </c>
+      <c r="X18" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
         <v>23</v>
       </c>
-      <c r="X18" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
         <v>126</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>101</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -4017,88 +4017,88 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
         <v>5.5</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
         <v>13</v>
       </c>
-      <c r="AD20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>29</v>
@@ -4110,13 +4110,13 @@
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
         <v>8</v>
@@ -4134,31 +4134,31 @@
         <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
       </c>
       <c r="AX20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY20" t="n">
         <v>26</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
       </c>
       <c r="AZ20" t="n">
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -4216,19 +4216,19 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4246,7 +4246,7 @@
         <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -4261,7 +4261,7 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4282,13 +4282,13 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4297,13 +4297,13 @@
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4333,10 +4333,10 @@
         <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
@@ -4376,10 +4376,10 @@
         <v>1.29</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>1.73</v>
@@ -4397,16 +4397,16 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4445,7 +4445,7 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>67</v>
@@ -4493,7 +4493,7 @@
         <v>3.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
@@ -4618,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="n">
         <v>9.25</v>
@@ -4639,7 +4639,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
         <v>50</v>
@@ -4731,76 +4731,76 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="K24" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="L24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
         <v>35</v>
@@ -4812,34 +4812,34 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
         <v>45</v>
       </c>
       <c r="AK24" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
         <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AP24" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR24" t="n">
         <v>45</v>
@@ -4848,7 +4848,7 @@
         <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU24" t="n">
         <v>10.5</v>
@@ -4857,10 +4857,10 @@
         <v>120</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AX24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AY24" t="n">
         <v>70</v>
@@ -4923,16 +4923,16 @@
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -5049,7 +5049,7 @@
         <v>201</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5105,10 +5105,10 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5129,13 +5129,13 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -5189,7 +5189,7 @@
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
@@ -5207,7 +5207,7 @@
         <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
@@ -5272,10 +5272,10 @@
         <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
@@ -5290,7 +5290,7 @@
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -5326,19 +5326,19 @@
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
         <v>21</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5395,7 +5395,7 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX27" t="n">
         <v>17</v>
@@ -5457,16 +5457,16 @@
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -5481,28 +5481,28 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5511,13 +5511,13 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
         <v>13</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>9</v>
@@ -5526,13 +5526,13 @@
         <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
@@ -5565,19 +5565,19 @@
         <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX28" t="n">
         <v>34</v>
@@ -5592,7 +5592,7 @@
         <v>151</v>
       </c>
       <c r="BB28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5633,22 +5633,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -5657,16 +5657,16 @@
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S29" t="n">
         <v>1.36</v>
@@ -5681,13 +5681,13 @@
         <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="n">
         <v>51</v>
@@ -5702,28 +5702,28 @@
         <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -5732,43 +5732,43 @@
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>41</v>
@@ -5836,7 +5836,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -5857,13 +5857,13 @@
         <v>2.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -5878,7 +5878,7 @@
         <v>26</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -5887,10 +5887,10 @@
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="n">
         <v>351</v>
@@ -5929,7 +5929,7 @@
         <v>81</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT30" t="n">
         <v>2.5</v>
@@ -6006,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.25</v>
@@ -6027,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6039,10 +6039,10 @@
         <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
         <v>9</v>
@@ -6063,7 +6063,7 @@
         <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
         <v>7</v>
@@ -6203,16 +6203,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6367,7 +6367,7 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -6376,7 +6376,7 @@
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6391,10 +6391,10 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6409,10 +6409,10 @@
         <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6439,7 +6439,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
         <v>15</v>
@@ -6755,10 +6755,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I36" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="J36" t="n">
         <v>1.88</v>
@@ -6918,19 +6918,19 @@
         <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q36" t="n">
         <v>1.9</v>
@@ -6945,22 +6945,22 @@
         <v>2.47</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="V36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W36" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X36" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA36" t="n">
         <v>13</v>
@@ -6969,10 +6969,10 @@
         <v>35</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE36" t="n">
         <v>23</v>
@@ -6984,7 +6984,7 @@
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
         <v>50</v>
@@ -6999,22 +6999,22 @@
         <v>110</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO36" t="n">
         <v>6.3</v>
       </c>
       <c r="AP36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
@@ -7023,7 +7023,7 @@
         <v>2.6</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV36" t="n">
         <v>90</v>
@@ -7035,13 +7035,13 @@
         <v>45</v>
       </c>
       <c r="AY36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ36" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA36" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
@@ -7079,55 +7079,55 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J37" t="n">
         <v>2.32</v>
       </c>
       <c r="K37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.75</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U37" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X37" t="n">
         <v>8.25</v>
@@ -7136,55 +7136,55 @@
         <v>8</v>
       </c>
       <c r="Z37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA37" t="n">
         <v>14</v>
       </c>
-      <c r="AA37" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AB37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>14</v>
       </c>
       <c r="AK37" t="n">
         <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO37" t="n">
         <v>8.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ37" t="n">
         <v>30</v>
@@ -7196,31 +7196,31 @@
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AX37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY37" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AZ37" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7435,22 +7435,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>1.83</v>
       </c>
       <c r="L39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.13</v>
@@ -7486,13 +7486,13 @@
         <v>5.5</v>
       </c>
       <c r="X39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="n">
         <v>23</v>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -7568,7 +7568,7 @@
         <v>41</v>
       </c>
       <c r="AZ39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA39" t="n">
         <v>151</v>
@@ -7636,7 +7636,7 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7996,7 +7996,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O42" t="n">
         <v>1.08</v>
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -8187,22 +8187,22 @@
         <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W43" t="n">
         <v>11</v>
@@ -8220,7 +8220,7 @@
         <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC43" t="n">
         <v>15</v>
@@ -8229,13 +8229,13 @@
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH43" t="n">
         <v>12</v>
@@ -8274,7 +8274,7 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU43" t="n">
         <v>7</v>
@@ -8298,10 +8298,10 @@
         <v>51</v>
       </c>
       <c r="BB43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8339,13 +8339,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
         <v>2.6</v>
@@ -8363,16 +8363,16 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S44" t="n">
         <v>1.3</v>
@@ -8387,10 +8387,10 @@
         <v>2.38</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
@@ -8408,7 +8408,7 @@
         <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
@@ -8417,7 +8417,7 @@
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -8432,7 +8432,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM44" t="n">
         <v>29</v>
@@ -8450,7 +8450,7 @@
         <v>34</v>
       </c>
       <c r="AR44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS44" t="n">
         <v>101</v>
@@ -8459,7 +8459,7 @@
         <v>3.4</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV44" t="n">
         <v>41</v>
@@ -8471,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="AY44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
@@ -8727,16 +8727,16 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8888,10 +8888,10 @@
         <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -8900,7 +8900,7 @@
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8921,19 +8921,19 @@
         <v>1.88</v>
       </c>
       <c r="S47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
@@ -8942,7 +8942,7 @@
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA47" t="n">
         <v>29</v>
@@ -8951,22 +8951,22 @@
         <v>34</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
         <v>6.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI47" t="n">
         <v>10</v>
@@ -8975,22 +8975,22 @@
         <v>9</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="n">
         <v>17</v>
       </c>
       <c r="AM47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO47" t="n">
         <v>19</v>
       </c>
       <c r="AP47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ47" t="n">
         <v>67</v>
@@ -9002,7 +9002,7 @@
         <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU47" t="n">
         <v>8</v>
@@ -9011,19 +9011,19 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX47" t="n">
         <v>12</v>
       </c>
       <c r="AY47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
@@ -9088,7 +9088,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -9297,7 +9297,7 @@
         <v>2.2</v>
       </c>
       <c r="W49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X49" t="n">
         <v>26</v>
@@ -9330,7 +9330,7 @@
         <v>151</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI49" t="n">
         <v>9.5</v>
@@ -9342,7 +9342,7 @@
         <v>13</v>
       </c>
       <c r="AL49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM49" t="n">
         <v>21</v>
@@ -9357,7 +9357,7 @@
         <v>26</v>
       </c>
       <c r="AQ49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR49" t="n">
         <v>81</v>
@@ -9384,7 +9384,7 @@
         <v>17</v>
       </c>
       <c r="AZ49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA49" t="n">
         <v>41</v>
@@ -9461,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S50" t="n">
         <v>1.29</v>
@@ -9631,22 +9631,22 @@
         <v>2.2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
         <v>1.44</v>
@@ -9655,13 +9655,13 @@
         <v>2.63</v>
       </c>
       <c r="U51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X51" t="n">
         <v>26</v>
@@ -9685,13 +9685,13 @@
         <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
         <v>67</v>
       </c>
       <c r="AG51" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
         <v>6</v>
@@ -9709,7 +9709,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>7</v>
@@ -9721,13 +9721,13 @@
         <v>41</v>
       </c>
       <c r="AQ51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR51" t="n">
         <v>151</v>
       </c>
       <c r="AS51" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT51" t="n">
         <v>2.63</v>
@@ -10121,7 +10121,7 @@
         <v>81</v>
       </c>
       <c r="BC53" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD53" t="n">
         <v>81</v>
@@ -10519,22 +10519,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10543,31 +10543,31 @@
         <v>8.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>1.65</v>
       </c>
       <c r="V56" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X56" t="n">
         <v>8.75</v>
@@ -10579,16 +10579,16 @@
         <v>13</v>
       </c>
       <c r="AA56" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE56" t="n">
         <v>14</v>
@@ -10603,40 +10603,40 @@
         <v>15.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO56" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AP56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR56" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS56" t="n">
         <v>175</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU56" t="n">
         <v>7.1</v>
@@ -10645,22 +10645,22 @@
         <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AX56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY56" t="n">
         <v>27</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>30</v>
       </c>
       <c r="AZ56" t="n">
         <v>150</v>
       </c>
       <c r="BA56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB56" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
@@ -10706,13 +10706,13 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -10727,10 +10727,10 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10751,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
         <v>21</v>
@@ -10781,7 +10781,7 @@
         <v>13</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
         <v>12</v>
@@ -10796,7 +10796,7 @@
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO57" t="n">
         <v>12</v>
@@ -10838,7 +10838,7 @@
         <v>67</v>
       </c>
       <c r="BB57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC57" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
@@ -768,7 +768,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -813,10 +813,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -953,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>81</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1526,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1562,13 +1562,13 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
         <v>19</v>
@@ -1666,7 +1666,7 @@
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
         <v>2.75</v>
@@ -1699,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
@@ -1786,7 +1786,7 @@
         <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
@@ -1914,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
@@ -1960,7 +1960,7 @@
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
@@ -2034,13 +2034,13 @@
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2049,10 +2049,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2118,7 +2118,7 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2348,7 +2348,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2413,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2574,7 +2574,7 @@
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
         <v>2.12</v>
@@ -2583,76 +2583,76 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK12" t="n">
         <v>40</v>
@@ -2661,7 +2661,7 @@
         <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="n">
         <v>4.05</v>
@@ -2670,34 +2670,34 @@
         <v>10.75</v>
       </c>
       <c r="AP12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>40</v>
       </c>
       <c r="AR12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX12" t="n">
         <v>17.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>90</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2759,40 +2759,40 @@
         <v>2.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" t="n">
         <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2810,13 +2810,13 @@
         <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2825,13 +2825,13 @@
         <v>45</v>
       </c>
       <c r="AG13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.75</v>
@@ -2843,52 +2843,52 @@
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>12.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS13" t="n">
         <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV13" t="n">
         <v>50</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
         <v>9.75</v>
@@ -2944,7 +2944,7 @@
         <v>2.52</v>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2953,16 +2953,16 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -2971,13 +2971,13 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
         <v>6.6</v>
@@ -2992,7 +2992,7 @@
         <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -3037,10 +3037,10 @@
         <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS14" t="n">
         <v>200</v>
@@ -3052,7 +3052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
@@ -3111,19 +3111,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>4.05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>4.45</v>
@@ -3132,13 +3132,13 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="n">
         <v>2.05</v>
@@ -3159,7 +3159,7 @@
         <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
         <v>8</v>
@@ -3168,19 +3168,19 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3198,10 +3198,10 @@
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -3210,16 +3210,16 @@
         <v>50</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP15" t="n">
         <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR15" t="n">
         <v>70</v>
@@ -3231,10 +3231,10 @@
         <v>2.65</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW15" t="n">
         <v>5.8</v>
@@ -3243,10 +3243,10 @@
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA15" t="n">
         <v>175</v>
@@ -3293,22 +3293,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3323,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
         <v>1.72</v>
@@ -3332,7 +3332,7 @@
         <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="n">
         <v>1.93</v>
@@ -3344,16 +3344,16 @@
         <v>10.75</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
         <v>55</v>
@@ -3362,10 +3362,10 @@
         <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
@@ -3377,13 +3377,13 @@
         <v>6.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -3392,13 +3392,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ16" t="n">
         <v>150</v>
@@ -3407,28 +3407,28 @@
         <v>175</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY16" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA16" t="n">
         <v>65</v>
@@ -3493,22 +3493,22 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3835,28 +3835,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3877,13 +3877,13 @@
         <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
@@ -3901,13 +3901,13 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3937,13 +3937,13 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3970,13 +3970,13 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
         <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>351</v>
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4041,16 +4041,16 @@
         <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4059,22 +4059,22 @@
         <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -4083,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>8</v>
@@ -4095,16 +4095,16 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
@@ -4116,16 +4116,16 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4143,16 +4143,16 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="n">
         <v>81</v>
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -4225,10 +4225,10 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4237,13 +4237,13 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>8.5</v>
@@ -4261,7 +4261,7 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4273,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -4297,13 +4297,13 @@
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H22" t="n">
         <v>5.75</v>
@@ -4397,10 +4397,10 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
         <v>1.62</v>
@@ -4421,7 +4421,7 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>6.5</v>
@@ -4442,13 +4442,13 @@
         <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="n">
         <v>1250</v>
@@ -4472,13 +4472,13 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>15</v>
@@ -4555,34 +4555,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q23" t="n">
         <v>1.65</v>
@@ -4597,10 +4597,10 @@
         <v>3.1</v>
       </c>
       <c r="U23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
         <v>5.9</v>
@@ -4609,85 +4609,85 @@
         <v>5.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
       </c>
       <c r="AB23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="n">
         <v>45</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>40</v>
-      </c>
       <c r="AF23" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM23" t="n">
         <v>250</v>
       </c>
-      <c r="AM23" t="n">
-        <v>200</v>
-      </c>
       <c r="AN23" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AO23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>50</v>
       </c>
       <c r="AS23" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT23" t="n">
         <v>3.1</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AV23" t="n">
         <v>150</v>
       </c>
       <c r="AW23" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AY23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AZ23" t="n">
         <v>700</v>
@@ -4755,7 +4755,7 @@
         <v>9.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
         <v>4.05</v>
@@ -4767,19 +4767,19 @@
         <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.8</v>
@@ -4788,13 +4788,13 @@
         <v>10.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="n">
         <v>9.25</v>
@@ -4812,10 +4812,10 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="n">
         <v>45</v>
@@ -4824,7 +4824,7 @@
         <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM24" t="n">
         <v>175</v>
@@ -4833,7 +4833,7 @@
         <v>2.92</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AP24" t="n">
         <v>18.5</v>
@@ -4848,7 +4848,7 @@
         <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU24" t="n">
         <v>10.5</v>
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -5141,10 +5141,10 @@
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>21</v>
@@ -5180,7 +5180,7 @@
         <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
@@ -5189,13 +5189,13 @@
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
         <v>67</v>
@@ -5213,7 +5213,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>2.63</v>
@@ -5284,13 +5284,13 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -5302,7 +5302,7 @@
         <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5317,7 +5317,7 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -5335,10 +5335,10 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5347,7 +5347,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH27" t="n">
         <v>8.5</v>
@@ -5368,7 +5368,7 @@
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
@@ -5463,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -5481,22 +5481,22 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
@@ -5511,10 +5511,10 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
         <v>13</v>
@@ -5526,13 +5526,13 @@
         <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
         <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
@@ -5565,19 +5565,19 @@
         <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="n">
         <v>34</v>
@@ -5592,7 +5592,7 @@
         <v>151</v>
       </c>
       <c r="BB28" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -5642,7 +5642,7 @@
         <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
@@ -5669,10 +5669,10 @@
         <v>2.05</v>
       </c>
       <c r="S29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U29" t="n">
         <v>1.83</v>
@@ -5699,22 +5699,22 @@
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
         <v>8.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
         <v>7.5</v>
@@ -5750,7 +5750,7 @@
         <v>251</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
@@ -5759,7 +5759,7 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX29" t="n">
         <v>8</v>
@@ -5824,7 +5824,7 @@
         <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -5836,7 +5836,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -5881,7 +5881,7 @@
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5947,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>51</v>
@@ -5956,7 +5956,7 @@
         <v>81</v>
       </c>
       <c r="BB30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6027,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6367,7 +6367,7 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -6376,7 +6376,7 @@
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6409,10 +6409,10 @@
         <v>2.2</v>
       </c>
       <c r="W33" t="n">
+        <v>9</v>
+      </c>
+      <c r="X33" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>10</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6439,19 +6439,19 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -6469,7 +6469,7 @@
         <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR33" t="n">
         <v>41</v>
@@ -6487,7 +6487,7 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX33" t="n">
         <v>21</v>
@@ -6725,16 +6725,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
@@ -6743,10 +6743,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6767,22 +6767,22 @@
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
         <v>13</v>
@@ -6791,10 +6791,10 @@
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE35" t="n">
         <v>17</v>
@@ -6803,10 +6803,10 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
@@ -6818,34 +6818,34 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
         <v>19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT35" t="n">
         <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6854,19 +6854,19 @@
         <v>6.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA35" t="n">
         <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -6903,34 +6903,34 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H36" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q36" t="n">
         <v>1.9</v>
@@ -6945,22 +6945,22 @@
         <v>2.47</v>
       </c>
       <c r="U36" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
         <v>5.5</v>
       </c>
       <c r="X36" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>13</v>
@@ -6969,49 +6969,49 @@
         <v>35</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
         <v>50</v>
       </c>
       <c r="AJ36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK36" t="n">
         <v>200</v>
       </c>
       <c r="AL36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR36" t="n">
         <v>55</v>
@@ -7023,13 +7023,13 @@
         <v>2.6</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
         <v>90</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX36" t="n">
         <v>45</v>
@@ -7082,19 +7082,19 @@
         <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L37" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7103,31 +7103,31 @@
         <v>9.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.85</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W37" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X37" t="n">
         <v>8.25</v>
@@ -7136,19 +7136,19 @@
         <v>8</v>
       </c>
       <c r="Z37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB37" t="n">
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE37" t="n">
         <v>15.5</v>
@@ -7160,7 +7160,7 @@
         <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI37" t="n">
         <v>24</v>
@@ -7169,7 +7169,7 @@
         <v>14.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
         <v>45</v>
@@ -7181,13 +7181,13 @@
         <v>3.55</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
         <v>60</v>
@@ -7196,7 +7196,7 @@
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU37" t="n">
         <v>7.4</v>
@@ -7208,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="AX37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY37" t="n">
         <v>32</v>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>3.35</v>
@@ -7266,13 +7266,13 @@
         <v>1.78</v>
       </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7281,10 +7281,10 @@
         <v>6.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q38" t="n">
         <v>1.98</v>
@@ -7305,22 +7305,22 @@
         <v>1.78</v>
       </c>
       <c r="W38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
         <v>24</v>
       </c>
       <c r="Y38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
         <v>75</v>
       </c>
       <c r="AA38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="n">
         <v>8.75</v>
@@ -7338,10 +7338,10 @@
         <v>700</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
@@ -7350,55 +7350,55 @@
         <v>14.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP38" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AQ38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR38" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV38" t="n">
         <v>65</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX38" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA38" t="n">
         <v>60</v>
       </c>
       <c r="BB38" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7793,22 +7793,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="n">
         <v>2.4</v>
       </c>
       <c r="L41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -7835,22 +7835,22 @@
         <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W41" t="n">
         <v>12</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7877,10 +7877,10 @@
         <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
@@ -7895,7 +7895,7 @@
         <v>4.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP41" t="n">
         <v>17</v>
@@ -8005,10 +8005,10 @@
         <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.18</v>
@@ -8157,22 +8157,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8181,16 +8181,16 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8205,7 +8205,7 @@
         <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X43" t="n">
         <v>15</v>
@@ -8214,13 +8214,13 @@
         <v>10</v>
       </c>
       <c r="Z43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB43" t="n">
         <v>23</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>21</v>
       </c>
       <c r="AC43" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         <v>10</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL43" t="n">
         <v>19</v>
@@ -8286,10 +8286,10 @@
         <v>5</v>
       </c>
       <c r="AX43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ43" t="n">
         <v>41</v>
@@ -8703,22 +8703,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8733,10 +8733,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8772,7 +8772,7 @@
         <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -8802,13 +8802,13 @@
         <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
         <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
@@ -8826,7 +8826,7 @@
         <v>7.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW46" t="n">
         <v>5</v>
@@ -8847,7 +8847,7 @@
         <v>151</v>
       </c>
       <c r="BC46" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD46" t="n">
         <v>81</v>
@@ -9279,10 +9279,10 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="n">
         <v>1.3</v>
@@ -9625,16 +9625,16 @@
         <v>5.5</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
         <v>2.2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.3</v>
@@ -9643,16 +9643,16 @@
         <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
@@ -9676,10 +9676,10 @@
         <v>41</v>
       </c>
       <c r="AB51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD51" t="n">
         <v>7.5</v>
@@ -9688,13 +9688,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
         <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
         <v>7</v>
@@ -9724,13 +9724,13 @@
         <v>101</v>
       </c>
       <c r="AR51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS51" t="n">
         <v>450</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
@@ -9795,22 +9795,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
         <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
@@ -9846,22 +9846,22 @@
         <v>7.5</v>
       </c>
       <c r="X52" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y52" t="n">
         <v>11</v>
       </c>
-      <c r="Y52" t="n">
-        <v>10</v>
-      </c>
       <c r="Z52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA52" t="n">
         <v>23</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>21</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
         <v>6.5</v>
@@ -9876,10 +9876,10 @@
         <v>800</v>
       </c>
       <c r="AH52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ52" t="n">
         <v>11</v>
@@ -9900,7 +9900,7 @@
         <v>15</v>
       </c>
       <c r="AP52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ52" t="n">
         <v>51</v>
@@ -9921,10 +9921,10 @@
         <v>67</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY52" t="n">
         <v>29</v>
@@ -9977,13 +9977,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -9992,13 +9992,13 @@
         <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="n">
-        <v>19</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -10058,16 +10058,16 @@
         <v>81</v>
       </c>
       <c r="AH53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL53" t="n">
         <v>17</v>
@@ -10112,7 +10112,7 @@
         <v>17</v>
       </c>
       <c r="AZ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA53" t="n">
         <v>41</v>
@@ -10341,22 +10341,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
         <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10365,16 +10365,16 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R55" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -10389,31 +10389,31 @@
         <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z55" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA55" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC55" t="n">
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF55" t="n">
         <v>37</v>
@@ -10425,61 +10425,61 @@
         <v>11</v>
       </c>
       <c r="AI55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM55" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP55" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AQ55" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR55" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS55" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT55" t="n">
         <v>3.25</v>
       </c>
       <c r="AU55" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AX55" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AY55" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ55" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB55" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -831,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -882,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -953,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1335,10 +1335,10 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1481,10 +1481,10 @@
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1499,10 +1499,10 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.67</v>
@@ -1517,13 +1517,13 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1541,19 +1541,19 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1562,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -2049,10 +2049,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2419,10 +2419,10 @@
         <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
         <v>1.5</v>
@@ -2434,13 +2434,13 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2449,13 +2449,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
@@ -2470,19 +2470,19 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2500,7 +2500,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2509,13 +2509,13 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.15</v>
@@ -3314,13 +3314,13 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q16" t="n">
         <v>2.02</v>
@@ -3335,37 +3335,37 @@
         <v>2.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>10.75</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD16" t="n">
         <v>6.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
@@ -3377,13 +3377,13 @@
         <v>6.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -3392,7 +3392,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO16" t="n">
         <v>24</v>
@@ -3413,7 +3413,7 @@
         <v>2.72</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>70</v>
@@ -3478,19 +3478,19 @@
         <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
         <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3499,34 +3499,34 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3538,25 +3538,25 @@
         <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3583,22 +3583,22 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>5.5</v>
@@ -3616,7 +3616,7 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3853,13 +3853,13 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4035,13 +4035,13 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4213,13 +4213,13 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4282,13 +4282,13 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4385,43 +4385,43 @@
         <v>1.73</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L22" t="n">
         <v>8.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>6.5</v>
@@ -4436,22 +4436,22 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -4472,13 +4472,13 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>15</v>
@@ -4490,13 +4490,13 @@
         <v>126</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4570,19 +4570,19 @@
         <v>2.57</v>
       </c>
       <c r="L23" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q23" t="n">
         <v>1.65</v>
@@ -4597,22 +4597,22 @@
         <v>3.1</v>
       </c>
       <c r="U23" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="V23" t="n">
         <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y23" t="n">
         <v>11.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
@@ -4621,7 +4621,7 @@
         <v>50</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD23" t="n">
         <v>14</v>
@@ -4654,7 +4654,7 @@
         <v>250</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AO23" t="n">
         <v>4.9</v>
@@ -4675,7 +4675,7 @@
         <v>3.1</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AV23" t="n">
         <v>150</v>
@@ -4731,13 +4731,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
         <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
         <v>1.65</v>
@@ -4758,7 +4758,7 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -4767,10 +4767,10 @@
         <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U24" t="n">
         <v>2.32</v>
@@ -4779,7 +4779,7 @@
         <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
         <v>5.8</v>
@@ -4788,7 +4788,7 @@
         <v>10.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
@@ -4812,19 +4812,19 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
         <v>45</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
         <v>175</v>
@@ -4833,31 +4833,31 @@
         <v>2.92</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AP24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ24" t="n">
         <v>13</v>
       </c>
       <c r="AR24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS24" t="n">
         <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV24" t="n">
         <v>120</v>
       </c>
       <c r="AW24" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AX24" t="n">
         <v>75</v>
@@ -4905,22 +4905,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4947,10 +4947,10 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -4962,19 +4962,19 @@
         <v>9.5</v>
       </c>
       <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
         <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -5019,7 +5019,7 @@
         <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
         <v>2.63</v>
@@ -5105,10 +5105,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5269,28 +5269,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -5311,22 +5311,22 @@
         <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5350,34 +5350,34 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM27" t="n">
         <v>29</v>
       </c>
-      <c r="AL27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="n">
         <v>67</v>
@@ -5395,22 +5395,22 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC27" t="n">
         <v>81</v>
@@ -5475,16 +5475,16 @@
         <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -5499,7 +5499,7 @@
         <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
@@ -5517,7 +5517,7 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>9</v>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -5836,7 +5836,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -5881,7 +5881,7 @@
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5947,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>51</v>
@@ -5956,7 +5956,7 @@
         <v>81</v>
       </c>
       <c r="BB30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6027,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6179,19 +6179,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
         <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
         <v>3.4</v>
@@ -6203,16 +6203,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6221,10 +6221,10 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W32" t="n">
         <v>11</v>
@@ -6248,19 +6248,19 @@
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -6269,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>21</v>
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H33" t="n">
         <v>3.8</v>
@@ -6391,7 +6391,7 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>2.25</v>
@@ -6573,10 +6573,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6743,10 +6743,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6903,28 +6903,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>3.95</v>
       </c>
       <c r="I36" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K36" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.31</v>
@@ -6945,7 +6945,7 @@
         <v>2.47</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
         <v>1.57</v>
@@ -6954,13 +6954,13 @@
         <v>5.5</v>
       </c>
       <c r="X36" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA36" t="n">
         <v>13</v>
@@ -6975,52 +6975,52 @@
         <v>8</v>
       </c>
       <c r="AE36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
         <v>50</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AP36" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU36" t="n">
         <v>8.5</v>
@@ -7029,19 +7029,19 @@
         <v>90</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AX36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BA36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
@@ -7085,16 +7085,16 @@
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J37" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K37" t="n">
         <v>2.12</v>
       </c>
       <c r="L37" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7115,10 +7115,10 @@
         <v>1.78</v>
       </c>
       <c r="S37" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T37" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U37" t="n">
         <v>1.75</v>
@@ -7127,19 +7127,19 @@
         <v>1.85</v>
       </c>
       <c r="W37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X37" t="n">
         <v>8.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z37" t="n">
         <v>14</v>
       </c>
       <c r="AA37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB37" t="n">
         <v>26</v>
@@ -7148,79 +7148,79 @@
         <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH37" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK37" t="n">
         <v>70</v>
       </c>
       <c r="AL37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="n">
         <v>45</v>
       </c>
-      <c r="AM37" t="n">
-        <v>50</v>
-      </c>
       <c r="AN37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA37" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB37" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
         <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J38" t="n">
         <v>4.75</v>
@@ -7272,7 +7272,7 @@
         <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7284,7 +7284,7 @@
         <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q38" t="n">
         <v>1.98</v>
@@ -7299,34 +7299,34 @@
         <v>2.66</v>
       </c>
       <c r="U38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="n">
         <v>50</v>
       </c>
       <c r="AB38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="n">
         <v>8.75</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE38" t="n">
         <v>16</v>
@@ -7338,46 +7338,46 @@
         <v>700</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AI38" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AO38" t="n">
         <v>26</v>
       </c>
       <c r="AP38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ38" t="n">
         <v>150</v>
       </c>
       <c r="AR38" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS38" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV38" t="n">
         <v>65</v>
@@ -7389,7 +7389,7 @@
         <v>8.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ38" t="n">
         <v>29</v>
@@ -7398,7 +7398,7 @@
         <v>60</v>
       </c>
       <c r="BB38" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -8005,10 +8005,10 @@
         <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S42" t="n">
         <v>1.18</v>
@@ -8157,16 +8157,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>2.38</v>
@@ -8181,10 +8181,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
         <v>1.6</v>
@@ -8283,7 +8283,7 @@
         <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX43" t="n">
         <v>13</v>
@@ -8521,13 +8521,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
         <v>2.5</v>
@@ -8563,16 +8563,16 @@
         <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8581,7 +8581,7 @@
         <v>17</v>
       </c>
       <c r="AA45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB45" t="n">
         <v>21</v>
@@ -8599,13 +8599,13 @@
         <v>41</v>
       </c>
       <c r="AG45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH45" t="n">
         <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
         <v>13</v>
@@ -8617,22 +8617,22 @@
         <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN45" t="n">
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
       </c>
       <c r="AQ45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS45" t="n">
         <v>101</v>
@@ -8647,19 +8647,19 @@
         <v>41</v>
       </c>
       <c r="AW45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB45" t="n">
         <v>151</v>
@@ -8733,10 +8733,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8885,22 +8885,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8909,16 +8909,16 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R47" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8927,31 +8927,31 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB47" t="n">
         <v>29</v>
       </c>
-      <c r="AB47" t="n">
-        <v>34</v>
-      </c>
       <c r="AC47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
         <v>6.5</v>
@@ -8966,16 +8966,16 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ47" t="n">
         <v>9</v>
       </c>
       <c r="AK47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
         <v>17</v>
@@ -8984,34 +8984,34 @@
         <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP47" t="n">
         <v>26</v>
       </c>
       <c r="AQ47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR47" t="n">
         <v>67</v>
       </c>
-      <c r="AR47" t="n">
-        <v>81</v>
-      </c>
       <c r="AS47" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT47" t="n">
         <v>2.75</v>
       </c>
       <c r="AU47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX47" t="n">
         <v>12</v>
@@ -9067,28 +9067,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -9097,10 +9097,10 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S48" t="n">
         <v>1.36</v>
@@ -9118,7 +9118,7 @@
         <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
@@ -9133,7 +9133,7 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
         <v>7.5</v>
@@ -9148,7 +9148,7 @@
         <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
         <v>8</v>
@@ -9157,7 +9157,7 @@
         <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
@@ -9166,28 +9166,28 @@
         <v>26</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR48" t="n">
         <v>101</v>
       </c>
       <c r="AS48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT48" t="n">
         <v>3</v>
       </c>
       <c r="AU48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV48" t="n">
         <v>51</v>
@@ -9279,10 +9279,10 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
         <v>1.3</v>
@@ -9431,28 +9431,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H50" t="n">
         <v>6.5</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K50" t="n">
         <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
         <v>1.17</v>
@@ -9461,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
         <v>1.29</v>
@@ -9473,13 +9473,13 @@
         <v>3.5</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X50" t="n">
         <v>6.5</v>
@@ -9488,28 +9488,28 @@
         <v>9</v>
       </c>
       <c r="Z50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA50" t="n">
         <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
         <v>17</v>
       </c>
       <c r="AD50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH50" t="n">
         <v>21</v>
@@ -9524,16 +9524,16 @@
         <v>101</v>
       </c>
       <c r="AL50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM50" t="n">
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP50" t="n">
         <v>17</v>
@@ -9551,13 +9551,13 @@
         <v>3.5</v>
       </c>
       <c r="AU50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX50" t="n">
         <v>41</v>
@@ -9566,7 +9566,7 @@
         <v>41</v>
       </c>
       <c r="AZ50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA50" t="n">
         <v>201</v>
@@ -9613,10 +9613,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
         <v>1.57</v>
@@ -9628,7 +9628,7 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -9637,16 +9637,16 @@
         <v>8.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9655,19 +9655,19 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="n">
         <v>51</v>
@@ -9676,10 +9676,10 @@
         <v>41</v>
       </c>
       <c r="AB51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
         <v>7.5</v>
@@ -9706,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
         <v>29</v>
@@ -9736,19 +9736,19 @@
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW51" t="n">
         <v>3.5</v>
       </c>
       <c r="AX51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA51" t="n">
         <v>51</v>
@@ -9795,40 +9795,40 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H52" t="n">
         <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
         <v>1.5</v>
@@ -9837,28 +9837,28 @@
         <v>2.5</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
         <v>11</v>
       </c>
       <c r="Z52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA52" t="n">
         <v>26</v>
       </c>
-      <c r="AA52" t="n">
-        <v>23</v>
-      </c>
       <c r="AB52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="n">
         <v>8</v>
@@ -9873,31 +9873,31 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM52" t="n">
         <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP52" t="n">
         <v>29</v>
@@ -9921,13 +9921,13 @@
         <v>67</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX52" t="n">
         <v>15</v>
       </c>
       <c r="AY52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ52" t="n">
         <v>51</v>
@@ -9936,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="BB52" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC52" t="n">
         <v>81</v>
@@ -9977,13 +9977,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -9992,13 +9992,13 @@
         <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -10040,13 +10040,13 @@
         <v>19</v>
       </c>
       <c r="AB53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE53" t="n">
         <v>10</v>
@@ -10058,16 +10058,16 @@
         <v>81</v>
       </c>
       <c r="AH53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI53" t="n">
         <v>15</v>
       </c>
-      <c r="AI53" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL53" t="n">
         <v>17</v>
@@ -10103,7 +10103,7 @@
         <v>41</v>
       </c>
       <c r="AW53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX53" t="n">
         <v>12</v>
@@ -10174,13 +10174,13 @@
         <v>1.95</v>
       </c>
       <c r="L54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -10201,10 +10201,10 @@
         <v>2.38</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W54" t="n">
         <v>7</v>
@@ -10249,7 +10249,7 @@
         <v>11</v>
       </c>
       <c r="AK54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL54" t="n">
         <v>26</v>
@@ -10297,10 +10297,10 @@
         <v>51</v>
       </c>
       <c r="BA54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC54" t="n">
         <v>81</v>
@@ -10522,16 +10522,16 @@
         <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I56" t="n">
         <v>4.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K56" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L56" t="n">
         <v>4.65</v>
@@ -10540,34 +10540,34 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R56" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W56" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X56" t="n">
         <v>8.75</v>
@@ -10579,31 +10579,31 @@
         <v>13</v>
       </c>
       <c r="AA56" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH56" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ56" t="n">
         <v>14.5</v>
@@ -10618,43 +10618,43 @@
         <v>37</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO56" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ56" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS56" t="n">
         <v>175</v>
       </c>
       <c r="AT56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV56" t="n">
         <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AX56" t="n">
         <v>25</v>
       </c>
       <c r="AY56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ56" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA56" t="n">
         <v>150</v>
@@ -10697,22 +10697,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K57" t="n">
         <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -10721,16 +10721,16 @@
         <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10751,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z57" t="n">
         <v>21</v>
@@ -10763,13 +10763,13 @@
         <v>23</v>
       </c>
       <c r="AC57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF57" t="n">
         <v>41</v>
@@ -10778,10 +10778,10 @@
         <v>126</v>
       </c>
       <c r="AH57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="n">
         <v>12</v>
@@ -10796,13 +10796,13 @@
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO57" t="n">
         <v>12</v>
       </c>
       <c r="AP57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ57" t="n">
         <v>41</v>
@@ -10826,10 +10826,10 @@
         <v>5</v>
       </c>
       <c r="AX57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ57" t="n">
         <v>51</v>
@@ -10838,7 +10838,7 @@
         <v>67</v>
       </c>
       <c r="BB57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC57" t="n">
         <v>251</v>
@@ -10882,144 +10882,146 @@
         <v>1.33</v>
       </c>
       <c r="H58" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I58" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V58" t="n">
         <v>1.8</v>
       </c>
-      <c r="K58" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N58" t="n">
+      <c r="W58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y58" t="n">
         <v>8.5</v>
       </c>
-      <c r="O58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W58" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X58" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z58" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD58" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH58" t="n">
         <v>22</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>20</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK58" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL58" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AO58" t="n">
         <v>5.9</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS58" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV58" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ58" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA58" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB58" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>500</v>
+      </c>
       <c r="BC58" t="inlineStr"/>
       <c r="BD58" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -771,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB3" t="n">
         <v>81</v>
@@ -1129,22 +1129,22 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1305,7 +1305,7 @@
         <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>9</v>
@@ -1344,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1374,10 +1374,10 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
@@ -1386,7 +1386,7 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1395,13 +1395,13 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
         <v>29</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1529,10 +1529,10 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1559,16 +1559,16 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1577,7 +1577,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1604,7 +1604,7 @@
         <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
@@ -1672,7 +1672,7 @@
         <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1765,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS7" t="n">
         <v>81</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -2201,13 +2201,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2216,19 +2216,19 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -2258,10 +2258,10 @@
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2285,13 +2285,13 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2303,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
@@ -2383,19 +2383,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -2404,19 +2404,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2431,7 +2431,7 @@
         <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -2455,7 +2455,7 @@
         <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
@@ -2464,7 +2464,7 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2518,16 +2518,16 @@
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2565,55 +2565,55 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
@@ -2622,19 +2622,19 @@
         <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2643,16 +2643,16 @@
         <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>40</v>
@@ -2667,22 +2667,22 @@
         <v>4.05</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU12" t="n">
         <v>7.1</v>
@@ -2747,55 +2747,55 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>2.65</v>
       </c>
       <c r="J13" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2807,16 +2807,16 @@
         <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2828,7 +2828,7 @@
         <v>300</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI13" t="n">
         <v>14.5</v>
@@ -2843,31 +2843,31 @@
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
         <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
         <v>50</v>
@@ -2879,16 +2879,16 @@
         <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>60</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2929,22 +2929,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K14" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="L14" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2953,121 +2953,121 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AA14" t="n">
         <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM14" t="n">
         <v>75</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>80</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR14" t="n">
         <v>40</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY14" t="n">
         <v>45</v>
       </c>
       <c r="AZ14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA14" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB14" t="n">
         <v>500</v>
@@ -3293,22 +3293,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3326,7 +3326,7 @@
         <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3335,13 +3335,13 @@
         <v>2.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -3353,7 +3353,7 @@
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
         <v>50</v>
@@ -3362,16 +3362,16 @@
         <v>6.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE16" t="n">
         <v>16.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH16" t="n">
         <v>6.3</v>
@@ -3380,13 +3380,13 @@
         <v>7.9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
         <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
@@ -3398,10 +3398,10 @@
         <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR16" t="n">
         <v>175</v>
@@ -3413,22 +3413,22 @@
         <v>2.72</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV16" t="n">
         <v>70</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA16" t="n">
         <v>65</v>
@@ -3853,13 +3853,13 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4035,13 +4035,13 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4195,46 +4195,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
@@ -4246,13 +4246,13 @@
         <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4279,7 +4279,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
@@ -4306,13 +4306,13 @@
         <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4321,7 +4321,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
         <v>23</v>
@@ -4388,16 +4388,16 @@
         <v>2.63</v>
       </c>
       <c r="L22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
         <v>19</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4421,7 +4421,7 @@
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>6.5</v>
@@ -4451,7 +4451,7 @@
         <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -4514,7 +4514,7 @@
         <v>201</v>
       </c>
       <c r="BB22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4740,10 +4740,10 @@
         <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K24" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L24" t="n">
         <v>9.5</v>
@@ -4758,7 +4758,7 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -4773,13 +4773,13 @@
         <v>3.15</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V24" t="n">
         <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.8</v>
@@ -4812,7 +4812,7 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>110</v>
@@ -4842,7 +4842,7 @@
         <v>13</v>
       </c>
       <c r="AR24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS24" t="n">
         <v>300</v>
@@ -4851,7 +4851,7 @@
         <v>3.15</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AV24" t="n">
         <v>120</v>
@@ -4860,7 +4860,7 @@
         <v>11.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AY24" t="n">
         <v>70</v>
@@ -4905,13 +4905,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -4995,10 +4995,10 @@
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
@@ -5013,7 +5013,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5031,7 +5031,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -5269,22 +5269,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5293,52 +5293,52 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5350,34 +5350,34 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
         <v>67</v>
@@ -5386,7 +5386,7 @@
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
         <v>8</v>
@@ -5395,13 +5395,13 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
@@ -5451,40 +5451,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -5502,28 +5502,28 @@
         <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
@@ -5532,28 +5532,28 @@
         <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>67</v>
       </c>
       <c r="AL28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN28" t="n">
         <v>3.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5574,19 +5574,19 @@
         <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY28" t="n">
         <v>41</v>
       </c>
       <c r="AZ28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA28" t="n">
         <v>151</v>
@@ -5636,13 +5636,13 @@
         <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
         <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
@@ -5657,28 +5657,28 @@
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
         <v>15</v>
@@ -5699,25 +5699,25 @@
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
@@ -5750,7 +5750,7 @@
         <v>251</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
@@ -5759,7 +5759,7 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX29" t="n">
         <v>8</v>
@@ -5774,7 +5774,7 @@
         <v>41</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5836,19 +5836,19 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
         <v>1.5</v>
@@ -6182,19 +6182,19 @@
         <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6203,37 +6203,37 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
         <v>21</v>
@@ -6242,13 +6242,13 @@
         <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
@@ -6257,7 +6257,7 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
         <v>12</v>
@@ -6269,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>21</v>
@@ -6293,13 +6293,13 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
         <v>41</v>
@@ -6317,7 +6317,7 @@
         <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB32" t="n">
         <v>126</v>
@@ -6361,64 +6361,64 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X33" t="n">
         <v>9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
@@ -6427,7 +6427,7 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>7.5</v>
@@ -6442,7 +6442,7 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
         <v>26</v>
@@ -6460,10 +6460,10 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -6478,25 +6478,25 @@
         <v>101</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
         <v>6.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA33" t="n">
         <v>81</v>
@@ -6573,10 +6573,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6903,46 +6903,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L36" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U36" t="n">
         <v>2.12</v>
@@ -6954,16 +6954,16 @@
         <v>5.5</v>
       </c>
       <c r="X36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB36" t="n">
         <v>35</v>
@@ -6972,28 +6972,28 @@
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE36" t="n">
         <v>23</v>
       </c>
       <c r="AF36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK36" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="n">
         <v>120</v>
@@ -7002,46 +7002,46 @@
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AP36" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS36" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV36" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AY36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ36" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BA36" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
@@ -7130,7 +7130,7 @@
         <v>6.8</v>
       </c>
       <c r="X37" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y37" t="n">
         <v>8.25</v>
@@ -7142,13 +7142,13 @@
         <v>14</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC37" t="n">
         <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7157,13 +7157,13 @@
         <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ37" t="n">
         <v>14</v>
@@ -7178,7 +7178,7 @@
         <v>45</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO37" t="n">
         <v>8.75</v>
@@ -7193,13 +7193,13 @@
         <v>65</v>
       </c>
       <c r="AS37" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT37" t="n">
         <v>2.55</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV37" t="n">
         <v>65</v>
@@ -7211,7 +7211,7 @@
         <v>23</v>
       </c>
       <c r="AY37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
         <v>120</v>
@@ -7257,40 +7257,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="K38" t="n">
         <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
         <v>1.42</v>
@@ -7305,10 +7305,10 @@
         <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -7323,13 +7323,13 @@
         <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF38" t="n">
         <v>80</v>
@@ -7338,7 +7338,7 @@
         <v>700</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI38" t="n">
         <v>7.6</v>
@@ -7350,10 +7350,10 @@
         <v>13.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
         <v>6.3</v>
@@ -7371,28 +7371,28 @@
         <v>175</v>
       </c>
       <c r="AS38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT38" t="n">
         <v>2.57</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV38" t="n">
         <v>65</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY38" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA38" t="n">
         <v>60</v>
@@ -7975,16 +7975,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H42" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I42" t="n">
         <v>6.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K42" t="n">
         <v>2.88</v>
@@ -7996,19 +7996,19 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.18</v>
@@ -8029,7 +8029,7 @@
         <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
         <v>11</v>
@@ -8044,7 +8044,7 @@
         <v>29</v>
       </c>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
         <v>17</v>
@@ -8065,7 +8065,7 @@
         <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="n">
         <v>41</v>
@@ -8080,13 +8080,13 @@
         <v>6.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ42" t="n">
         <v>15</v>
       </c>
       <c r="AR42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS42" t="n">
         <v>67</v>
@@ -8095,7 +8095,7 @@
         <v>4.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
@@ -8172,7 +8172,7 @@
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8181,10 +8181,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
         <v>1.6</v>
@@ -8256,7 +8256,7 @@
         <v>23</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO43" t="n">
         <v>13</v>
@@ -8339,22 +8339,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I44" t="n">
         <v>3.4</v>
       </c>
-      <c r="I44" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K44" t="n">
         <v>2.38</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8381,10 +8381,10 @@
         <v>3.4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W44" t="n">
         <v>11</v>
@@ -8396,7 +8396,7 @@
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8408,7 +8408,7 @@
         <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
@@ -8426,16 +8426,16 @@
         <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
         <v>23</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
@@ -8477,13 +8477,13 @@
         <v>51</v>
       </c>
       <c r="BA44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB44" t="n">
         <v>126</v>
       </c>
       <c r="BC44" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8521,46 +8521,46 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
         <v>1.62</v>
@@ -8572,13 +8572,13 @@
         <v>9</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8587,13 +8587,13 @@
         <v>21</v>
       </c>
       <c r="AC45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE45" t="n">
         <v>13</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8605,16 +8605,16 @@
         <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
         <v>34</v>
@@ -8623,13 +8623,13 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
@@ -8638,7 +8638,7 @@
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU45" t="n">
         <v>7.5</v>
@@ -8647,7 +8647,7 @@
         <v>41</v>
       </c>
       <c r="AW45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX45" t="n">
         <v>21</v>
@@ -8715,10 +8715,10 @@
         <v>2.88</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8727,31 +8727,31 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X46" t="n">
         <v>12</v>
@@ -8769,7 +8769,7 @@
         <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8784,7 +8784,7 @@
         <v>151</v>
       </c>
       <c r="AH46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -8802,7 +8802,7 @@
         <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO46" t="n">
         <v>12</v>
@@ -8820,7 +8820,7 @@
         <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU46" t="n">
         <v>7.5</v>
@@ -8885,22 +8885,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8909,16 +8909,16 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8933,19 +8933,19 @@
         <v>2.05</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
         <v>11</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB47" t="n">
         <v>29</v>
@@ -8966,31 +8966,31 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="n">
         <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
@@ -9011,19 +9011,19 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
@@ -9076,13 +9076,13 @@
         <v>1.62</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -9097,10 +9097,10 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R48" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="n">
         <v>1.36</v>
@@ -9118,7 +9118,7 @@
         <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
@@ -9133,7 +9133,7 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
         <v>7.5</v>
@@ -9148,7 +9148,7 @@
         <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI48" t="n">
         <v>8</v>
@@ -9157,7 +9157,7 @@
         <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
@@ -9166,28 +9166,28 @@
         <v>26</v>
       </c>
       <c r="AN48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR48" t="n">
         <v>101</v>
       </c>
       <c r="AS48" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT48" t="n">
         <v>3</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV48" t="n">
         <v>51</v>
@@ -9279,10 +9279,10 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="n">
         <v>1.3</v>
@@ -9434,7 +9434,7 @@
         <v>1.25</v>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
         <v>8.5</v>
@@ -9443,16 +9443,16 @@
         <v>1.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L50" t="n">
         <v>9</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O50" t="n">
         <v>1.17</v>
@@ -9461,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S50" t="n">
         <v>1.29</v>
@@ -9473,19 +9473,19 @@
         <v>3.5</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X50" t="n">
         <v>6.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z50" t="n">
         <v>7.5</v>
@@ -9503,13 +9503,13 @@
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF50" t="n">
         <v>81</v>
       </c>
       <c r="AG50" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH50" t="n">
         <v>21</v>
@@ -9521,7 +9521,7 @@
         <v>23</v>
       </c>
       <c r="AK50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL50" t="n">
         <v>67</v>
@@ -9530,7 +9530,7 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO50" t="n">
         <v>5.5</v>
@@ -9613,22 +9613,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -9655,25 +9655,25 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
         <v>15</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA51" t="n">
         <v>51</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>41</v>
       </c>
       <c r="AB51" t="n">
         <v>51</v>
@@ -9703,7 +9703,7 @@
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL51" t="n">
         <v>13</v>
@@ -9712,19 +9712,19 @@
         <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP51" t="n">
         <v>41</v>
       </c>
       <c r="AQ51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS51" t="n">
         <v>450</v>
@@ -9736,13 +9736,13 @@
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9795,28 +9795,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
         <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -9843,25 +9843,25 @@
         <v>1.73</v>
       </c>
       <c r="W52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
         <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB52" t="n">
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD52" t="n">
         <v>6.5</v>
@@ -9876,22 +9876,22 @@
         <v>900</v>
       </c>
       <c r="AH52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>11</v>
       </c>
-      <c r="AJ52" t="n">
-        <v>10</v>
-      </c>
       <c r="AK52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL52" t="n">
         <v>23</v>
       </c>
-      <c r="AL52" t="n">
-        <v>21</v>
-      </c>
       <c r="AM52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="n">
         <v>4.75</v>
@@ -9921,13 +9921,13 @@
         <v>67</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX52" t="n">
         <v>15</v>
       </c>
       <c r="AY52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ52" t="n">
         <v>51</v>
@@ -9936,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="BB52" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC52" t="n">
         <v>81</v>
@@ -9995,10 +9995,10 @@
         <v>2.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -10121,7 +10121,7 @@
         <v>81</v>
       </c>
       <c r="BC53" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD53" t="n">
         <v>81</v>
@@ -10159,22 +10159,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>1.95</v>
       </c>
       <c r="L54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.1</v>
@@ -10207,19 +10207,19 @@
         <v>1.73</v>
       </c>
       <c r="W54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB54" t="n">
         <v>41</v>
@@ -10237,31 +10237,31 @@
         <v>67</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ54" t="n">
         <v>11</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM54" t="n">
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP54" t="n">
         <v>29</v>
@@ -10285,7 +10285,7 @@
         <v>67</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX54" t="n">
         <v>17</v>
@@ -10297,10 +10297,10 @@
         <v>51</v>
       </c>
       <c r="BA54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC54" t="n">
         <v>81</v>
@@ -10344,16 +10344,16 @@
         <v>3.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L55" t="n">
         <v>2.5</v>
@@ -10368,19 +10368,19 @@
         <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q55" t="n">
         <v>1.53</v>
       </c>
       <c r="R55" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U55" t="n">
         <v>1.47</v>
@@ -10389,10 +10389,10 @@
         <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>11.25</v>
@@ -10401,7 +10401,7 @@
         <v>45</v>
       </c>
       <c r="AA55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB55" t="n">
         <v>25</v>
@@ -10410,7 +10410,7 @@
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE55" t="n">
         <v>11.5</v>
@@ -10446,7 +10446,7 @@
         <v>17</v>
       </c>
       <c r="AP55" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>75</v>
@@ -10455,16 +10455,16 @@
         <v>90</v>
       </c>
       <c r="AS55" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU55" t="n">
         <v>6.4</v>
       </c>
       <c r="AV55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW55" t="n">
         <v>4.3</v>
@@ -10484,7 +10484,9 @@
       <c r="BB55" t="n">
         <v>150</v>
       </c>
-      <c r="BC55" t="inlineStr"/>
+      <c r="BC55" t="n">
+        <v>500</v>
+      </c>
       <c r="BD55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -10519,22 +10521,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="J56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K56" t="n">
         <v>2.32</v>
       </c>
       <c r="L56" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10543,16 +10545,16 @@
         <v>8.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q56" t="n">
         <v>1.6</v>
       </c>
       <c r="R56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S56" t="n">
         <v>1.32</v>
@@ -10561,10 +10563,10 @@
         <v>3.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W56" t="n">
         <v>8.75</v>
@@ -10576,10 +10578,10 @@
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB56" t="n">
         <v>20</v>
@@ -10588,46 +10590,46 @@
         <v>8.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF56" t="n">
         <v>50</v>
       </c>
       <c r="AG56" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH56" t="n">
         <v>16.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ56" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL56" t="n">
         <v>40</v>
       </c>
       <c r="AM56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO56" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP56" t="n">
         <v>15</v>
       </c>
       <c r="AQ56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
         <v>45</v>
@@ -10639,22 +10641,22 @@
         <v>3.1</v>
       </c>
       <c r="AU56" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV56" t="n">
         <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AX56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ56" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA56" t="n">
         <v>150</v>
@@ -10697,22 +10699,22 @@
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K57" t="n">
         <v>2.3</v>
       </c>
-      <c r="H57" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L57" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -10721,16 +10723,16 @@
         <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10745,25 +10747,25 @@
         <v>2.25</v>
       </c>
       <c r="W57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB57" t="n">
         <v>23</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
@@ -10775,37 +10777,37 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM57" t="n">
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR57" t="n">
         <v>51</v>
@@ -10823,13 +10825,13 @@
         <v>41</v>
       </c>
       <c r="AW57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ57" t="n">
         <v>51</v>
@@ -10838,7 +10840,7 @@
         <v>67</v>
       </c>
       <c r="BB57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC57" t="n">
         <v>251</v>
@@ -10882,142 +10884,142 @@
         <v>1.33</v>
       </c>
       <c r="H58" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I58" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L58" t="n">
         <v>7.2</v>
       </c>
-      <c r="J58" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6.6</v>
-      </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="T58" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="U58" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="V58" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W58" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="X58" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA58" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>26</v>
       </c>
-      <c r="AC58" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="n">
+      <c r="AK58" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM58" t="n">
         <v>90</v>
       </c>
-      <c r="AG58" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>70</v>
-      </c>
       <c r="AN58" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AO58" t="n">
         <v>5.9</v>
       </c>
       <c r="AP58" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AQ58" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AS58" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AU58" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV58" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AY58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AZ58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB58" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -831,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -882,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -953,22 +953,22 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -998,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1058,16 +1058,16 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>81</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1171,16 +1171,16 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1296,25 +1296,25 @@
         <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1323,16 +1323,16 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1341,16 +1341,16 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1374,10 +1374,10 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
@@ -1386,7 +1386,7 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1395,13 +1395,13 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
         <v>29</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1434,10 +1434,10 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1481,13 +1481,13 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1517,13 +1517,13 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1538,13 +1538,13 @@
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1553,10 +1553,10 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1583,13 +1583,13 @@
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
@@ -1598,7 +1598,7 @@
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>5.5</v>
@@ -1619,7 +1619,7 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1675,10 +1675,10 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
@@ -1687,10 +1687,10 @@
         <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -2386,7 +2386,7 @@
         <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
         <v>2.15</v>
@@ -2404,19 +2404,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2425,10 +2425,10 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
         <v>7.5</v>
@@ -2479,7 +2479,7 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2488,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2524,7 +2524,7 @@
         <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
         <v>301</v>
@@ -2565,58 +2565,58 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.65</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y12" t="n">
         <v>8.75</v>
@@ -2625,88 +2625,88 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="n">
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
         <v>35</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>45</v>
       </c>
       <c r="AR12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX12" t="n">
         <v>17.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2747,148 +2747,148 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="W13" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>70</v>
       </c>
-      <c r="AS13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>60</v>
-      </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2929,22 +2929,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.78</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2956,7 +2956,7 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q14" t="n">
         <v>1.55</v>
@@ -2965,73 +2965,73 @@
         <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y14" t="n">
         <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>250</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
         <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP14" t="n">
         <v>15</v>
@@ -3046,22 +3046,22 @@
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
         <v>9.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ14" t="n">
         <v>350</v>
@@ -3070,7 +3070,7 @@
         <v>300</v>
       </c>
       <c r="BB14" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3111,37 +3111,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L15" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.7</v>
@@ -3153,73 +3153,73 @@
         <v>2.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
         <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>16</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR15" t="n">
         <v>70</v>
@@ -3231,28 +3231,28 @@
         <v>2.65</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AZ15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA15" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB15" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3296,85 +3296,85 @@
         <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD16" t="n">
         <v>6.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI16" t="n">
         <v>7.9</v>
@@ -3389,49 +3389,49 @@
         <v>15.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
         <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR16" t="n">
         <v>175</v>
       </c>
       <c r="AS16" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX16" t="n">
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>32</v>
       </c>
       <c r="BA16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
         <v>250</v>
@@ -3835,28 +3835,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.38</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3871,37 +3871,37 @@
         <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
         <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
@@ -3910,40 +3910,40 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH19" t="n">
         <v>15</v>
       </c>
       <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
         <v>23</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3952,28 +3952,28 @@
         <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
         <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
         <v>126</v>
@@ -4160,7 +4160,9 @@
       <c r="BB20" t="n">
         <v>151</v>
       </c>
-      <c r="BC20" t="inlineStr"/>
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
       <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4195,28 +4197,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -4237,22 +4239,22 @@
         <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
         <v>8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>13</v>
@@ -4261,16 +4263,16 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
@@ -4279,16 +4281,16 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4297,16 +4299,16 @@
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
@@ -4321,10 +4323,10 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
@@ -4373,13 +4375,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H22" t="n">
         <v>5.75</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.73</v>
@@ -4391,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -4409,28 +4411,28 @@
         <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
@@ -4451,7 +4453,7 @@
         <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -4472,7 +4474,7 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4484,13 +4486,13 @@
         <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
         <v>9.5</v>
@@ -4508,10 +4510,10 @@
         <v>41</v>
       </c>
       <c r="AZ22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB22" t="n">
         <v>301</v>
@@ -4555,22 +4557,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
         <v>1.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L23" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4597,22 +4599,22 @@
         <v>3.1</v>
       </c>
       <c r="U23" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V23" t="n">
         <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
@@ -4624,10 +4626,10 @@
         <v>9.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
         <v>300</v>
@@ -4636,13 +4638,13 @@
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK23" t="n">
         <v>700</v>
@@ -4654,7 +4656,7 @@
         <v>250</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AO23" t="n">
         <v>4.9</v>
@@ -4663,7 +4665,7 @@
         <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR23" t="n">
         <v>50</v>
@@ -4675,13 +4677,13 @@
         <v>3.1</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AV23" t="n">
         <v>150</v>
       </c>
       <c r="AW23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>90</v>
@@ -4905,13 +4907,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -4947,10 +4949,10 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -4971,13 +4973,13 @@
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -4986,19 +4988,19 @@
         <v>251</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
@@ -5013,7 +5015,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5031,7 +5033,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -5129,10 +5131,10 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5475,16 +5477,16 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -5633,76 +5635,76 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
+        <v>15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
         <v>13</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W29" t="n">
-        <v>15</v>
-      </c>
-      <c r="X29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>12</v>
-      </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
@@ -5711,37 +5713,37 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR29" t="n">
         <v>126</v>
@@ -5750,7 +5752,7 @@
         <v>251</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
@@ -5762,19 +5764,19 @@
         <v>3.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
         <v>41</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5818,52 +5820,52 @@
         <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L30" t="n">
         <v>3.25</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -5881,7 +5883,7 @@
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5896,7 +5898,7 @@
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI30" t="n">
         <v>11</v>
@@ -5908,34 +5910,34 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>67</v>
@@ -5947,7 +5949,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>51</v>
@@ -5956,7 +5958,7 @@
         <v>81</v>
       </c>
       <c r="BB30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6021,16 +6023,16 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6188,13 +6190,13 @@
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6203,34 +6205,34 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -6242,10 +6244,10 @@
         <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>7</v>
@@ -6254,13 +6256,13 @@
         <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -6293,13 +6295,13 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV32" t="n">
         <v>41</v>
@@ -6317,7 +6319,7 @@
         <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
         <v>126</v>
@@ -6379,10 +6381,10 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -6391,10 +6393,10 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6755,10 +6757,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6903,46 +6905,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K36" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="n">
         <v>2.12</v>
@@ -6951,28 +6953,28 @@
         <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X36" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB36" t="n">
         <v>35</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE36" t="n">
         <v>23</v>
@@ -6984,13 +6986,13 @@
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK36" t="n">
         <v>300</v>
@@ -7005,37 +7007,37 @@
         <v>3</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ36" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS36" t="n">
         <v>300</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AU36" t="n">
         <v>8.75</v>
       </c>
       <c r="AV36" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX36" t="n">
         <v>55</v>
       </c>
       <c r="AY36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ36" t="n">
         <v>450</v>
@@ -7079,97 +7081,97 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S37" t="n">
         <v>1.38</v>
       </c>
       <c r="T37" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="X37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y37" t="n">
         <v>8</v>
       </c>
-      <c r="Y37" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z37" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA37" t="n">
         <v>14</v>
       </c>
       <c r="AB37" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC37" t="n">
         <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI37" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>
@@ -7178,34 +7180,34 @@
         <v>45</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS37" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT37" t="n">
         <v>2.55</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV37" t="n">
         <v>65</v>
       </c>
       <c r="AW37" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX37" t="n">
         <v>23</v>
@@ -7220,7 +7222,7 @@
         <v>175</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7257,34 +7259,34 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="J38" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q38" t="n">
         <v>1.93</v>
@@ -7293,10 +7295,10 @@
         <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T38" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="U38" t="n">
         <v>1.85</v>
@@ -7305,31 +7307,31 @@
         <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X38" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
         <v>80</v>
       </c>
       <c r="AA38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="n">
         <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF38" t="n">
         <v>80</v>
@@ -7341,25 +7343,25 @@
         <v>6.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM38" t="n">
         <v>29</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP38" t="n">
         <v>30</v>
@@ -7374,25 +7376,25 @@
         <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV38" t="n">
         <v>65</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY38" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA38" t="n">
         <v>60</v>
@@ -7435,13 +7437,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
         <v>3</v>
@@ -7450,13 +7452,13 @@
         <v>1.83</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.57</v>
@@ -7471,22 +7473,22 @@
         <v>1.4</v>
       </c>
       <c r="S39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
@@ -7517,7 +7519,7 @@
         <v>8</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
         <v>15</v>
@@ -7532,7 +7534,7 @@
         <v>51</v>
       </c>
       <c r="AN39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
         <v>13</v>
@@ -7541,7 +7543,7 @@
         <v>29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
         <v>81</v>
@@ -7550,7 +7552,7 @@
         <v>351</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU39" t="n">
         <v>10</v>
@@ -7562,7 +7564,7 @@
         <v>5.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY39" t="n">
         <v>41</v>
@@ -7574,7 +7576,7 @@
         <v>151</v>
       </c>
       <c r="BB39" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC39" t="n">
         <v>81</v>
@@ -7633,10 +7635,10 @@
         <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7645,10 +7647,10 @@
         <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
         <v>1.53</v>
@@ -7793,13 +7795,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
         <v>2.5</v>
@@ -7808,7 +7810,7 @@
         <v>2.4</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -7841,7 +7843,7 @@
         <v>2.5</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X41" t="n">
         <v>12</v>
@@ -7853,7 +7855,7 @@
         <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -7883,16 +7885,16 @@
         <v>12</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM41" t="n">
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO41" t="n">
         <v>10</v>
@@ -7901,7 +7903,7 @@
         <v>17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
@@ -7919,7 +7921,7 @@
         <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX41" t="n">
         <v>17</v>
@@ -7978,7 +7980,7 @@
         <v>1.33</v>
       </c>
       <c r="H42" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
         <v>6.5</v>
@@ -7987,7 +7989,7 @@
         <v>1.73</v>
       </c>
       <c r="K42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
         <v>6</v>
@@ -7999,40 +8001,40 @@
         <v>29</v>
       </c>
       <c r="O42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R42" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y42" t="n">
         <v>10</v>
       </c>
-      <c r="Y42" t="n">
-        <v>9</v>
-      </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
@@ -8041,22 +8043,22 @@
         <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI42" t="n">
         <v>41</v>
@@ -8083,25 +8085,25 @@
         <v>12</v>
       </c>
       <c r="AQ42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AT42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX42" t="n">
         <v>29</v>
@@ -8110,16 +8112,16 @@
         <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA42" t="n">
         <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC42" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8157,22 +8159,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8205,16 +8207,16 @@
         <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA43" t="n">
         <v>19</v>
@@ -8247,19 +8249,19 @@
         <v>10</v>
       </c>
       <c r="AK43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN43" t="n">
         <v>5</v>
       </c>
       <c r="AO43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP43" t="n">
         <v>19</v>
@@ -8286,7 +8288,7 @@
         <v>4.75</v>
       </c>
       <c r="AX43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY43" t="n">
         <v>19</v>
@@ -8369,10 +8371,10 @@
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R44" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S44" t="n">
         <v>1.3</v>
@@ -8703,22 +8705,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8727,16 +8729,16 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8745,22 +8747,22 @@
         <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8787,25 +8789,25 @@
         <v>11</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
         <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP46" t="n">
         <v>21</v>
@@ -8832,7 +8834,7 @@
         <v>5</v>
       </c>
       <c r="AX46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY46" t="n">
         <v>23</v>
@@ -8885,16 +8887,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
@@ -8903,79 +8905,79 @@
         <v>3.1</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA47" t="n">
         <v>21</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD47" t="n">
         <v>6.5</v>
       </c>
       <c r="AE47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI47" t="n">
         <v>13</v>
       </c>
-      <c r="AF47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
         <v>19</v>
@@ -8990,10 +8992,10 @@
         <v>15</v>
       </c>
       <c r="AP47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR47" t="n">
         <v>67</v>
@@ -9002,7 +9004,7 @@
         <v>151</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU47" t="n">
         <v>7.5</v>
@@ -9011,25 +9013,25 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX47" t="n">
         <v>13</v>
       </c>
       <c r="AY47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
       </c>
       <c r="BC47" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD47" t="n">
         <v>81</v>
@@ -9067,46 +9069,46 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S48" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48" t="n">
         <v>1.83</v>
@@ -9115,28 +9117,28 @@
         <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
       </c>
       <c r="Z48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE48" t="n">
         <v>17</v>
@@ -9148,19 +9150,19 @@
         <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ48" t="n">
         <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM48" t="n">
         <v>26</v>
@@ -9169,10 +9171,10 @@
         <v>6.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ48" t="n">
         <v>81</v>
@@ -9184,7 +9186,7 @@
         <v>201</v>
       </c>
       <c r="AT48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU48" t="n">
         <v>8</v>
@@ -9193,22 +9195,22 @@
         <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA48" t="n">
         <v>51</v>
       </c>
       <c r="BB48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC48" t="n">
         <v>81</v>
@@ -9434,55 +9436,55 @@
         <v>1.25</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>1.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
@@ -9494,16 +9496,16 @@
         <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF50" t="n">
         <v>81</v>
@@ -9512,13 +9514,13 @@
         <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
         <v>41</v>
       </c>
       <c r="AJ50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK50" t="n">
         <v>126</v>
@@ -9530,13 +9532,13 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO50" t="n">
         <v>5.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ50" t="n">
         <v>15</v>
@@ -9545,10 +9547,10 @@
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU50" t="n">
         <v>10</v>
@@ -9560,19 +9562,19 @@
         <v>11</v>
       </c>
       <c r="AX50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ50" t="n">
         <v>251</v>
       </c>
       <c r="BA50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB50" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC50" t="n">
         <v>126</v>
@@ -9613,22 +9615,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -9643,10 +9645,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9661,7 +9663,7 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X51" t="n">
         <v>34</v>
@@ -9682,13 +9684,13 @@
         <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE51" t="n">
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
         <v>1000</v>
@@ -9712,7 +9714,7 @@
         <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO51" t="n">
         <v>34</v>
@@ -9727,7 +9729,7 @@
         <v>151</v>
       </c>
       <c r="AS51" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT51" t="n">
         <v>2.75</v>
@@ -9748,10 +9750,10 @@
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB51" t="n">
         <v>151</v>
@@ -9795,13 +9797,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
         <v>3.4</v>
@@ -9810,13 +9812,13 @@
         <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -9894,10 +9896,10 @@
         <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP52" t="n">
         <v>29</v>
@@ -9977,91 +9979,91 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S53" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T53" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U53" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V53" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X53" t="n">
         <v>17</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
         <v>29</v>
       </c>
       <c r="AA53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC53" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI53" t="n">
         <v>13</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>15</v>
       </c>
       <c r="AJ53" t="n">
         <v>10</v>
@@ -10073,16 +10075,16 @@
         <v>17</v>
       </c>
       <c r="AM53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN53" t="n">
         <v>5</v>
       </c>
       <c r="AO53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -10091,13 +10093,13 @@
         <v>51</v>
       </c>
       <c r="AS53" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV53" t="n">
         <v>41</v>
@@ -10109,19 +10111,19 @@
         <v>12</v>
       </c>
       <c r="AY53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ53" t="n">
         <v>41</v>
       </c>
       <c r="BA53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC53" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BD53" t="n">
         <v>81</v>
@@ -10159,13 +10161,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>3.4</v>
@@ -10183,28 +10185,28 @@
         <v>7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V54" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W54" t="n">
         <v>6.5</v>
@@ -10213,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
         <v>23</v>
@@ -10231,7 +10233,7 @@
         <v>6</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="n">
         <v>67</v>
@@ -10240,13 +10242,13 @@
         <v>1250</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI54" t="n">
         <v>13</v>
       </c>
       <c r="AJ54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
         <v>29</v>
@@ -10276,7 +10278,7 @@
         <v>251</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU54" t="n">
         <v>9</v>
@@ -10288,13 +10290,13 @@
         <v>4.75</v>
       </c>
       <c r="AX54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA54" t="n">
         <v>101</v>
@@ -10341,13 +10343,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -10356,7 +10358,7 @@
         <v>2.32</v>
       </c>
       <c r="L55" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10368,7 +10370,7 @@
         <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q55" t="n">
         <v>1.53</v>
@@ -10389,19 +10391,19 @@
         <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z55" t="n">
         <v>45</v>
       </c>
       <c r="AA55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB55" t="n">
         <v>25</v>
@@ -10410,7 +10412,7 @@
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE55" t="n">
         <v>11.5</v>
@@ -10422,16 +10424,16 @@
         <v>200</v>
       </c>
       <c r="AH55" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI55" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="n">
         <v>14</v>
@@ -10440,7 +10442,7 @@
         <v>18.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO55" t="n">
         <v>17</v>
@@ -10467,10 +10469,10 @@
         <v>40</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX55" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AY55" t="n">
         <v>15</v>
@@ -10521,58 +10523,58 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K56" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L56" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P56" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R56" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T56" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="U56" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="X56" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -10581,76 +10583,76 @@
         <v>12.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AB56" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG56" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AH56" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK56" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN56" t="n">
         <v>3.65</v>
       </c>
       <c r="AO56" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR56" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU56" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW56" t="n">
         <v>7.1</v>
       </c>
-      <c r="AV56" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AX56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY56" t="n">
         <v>27</v>
@@ -10662,7 +10664,7 @@
         <v>150</v>
       </c>
       <c r="BB56" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
@@ -10708,7 +10710,7 @@
         <v>3.6</v>
       </c>
       <c r="J57" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
@@ -10729,10 +10731,10 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10762,7 +10764,7 @@
         <v>15</v>
       </c>
       <c r="AB57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
         <v>13</v>
@@ -10777,7 +10779,7 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH57" t="n">
         <v>13</v>
@@ -10813,7 +10815,7 @@
         <v>51</v>
       </c>
       <c r="AS57" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT57" t="n">
         <v>3.25</v>
@@ -10881,22 +10883,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H58" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I58" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K58" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L58" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -10923,22 +10925,22 @@
         <v>2.92</v>
       </c>
       <c r="U58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V58" t="n">
         <v>1.65</v>
       </c>
       <c r="W58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X58" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y58" t="n">
         <v>8.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA58" t="n">
         <v>11.5</v>
@@ -10950,10 +10952,10 @@
         <v>8.25</v>
       </c>
       <c r="AD58" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF58" t="n">
         <v>120</v>
@@ -10962,13 +10964,13 @@
         <v>900</v>
       </c>
       <c r="AH58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK58" t="n">
         <v>200</v>
@@ -10980,16 +10982,16 @@
         <v>90</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO58" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AP58" t="n">
         <v>18</v>
       </c>
       <c r="AQ58" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR58" t="n">
         <v>50</v>
@@ -11001,22 +11003,22 @@
         <v>2.92</v>
       </c>
       <c r="AU58" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV58" t="n">
         <v>100</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX58" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY58" t="n">
         <v>50</v>
       </c>
       <c r="AZ58" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA58" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="L3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -971,25 +971,25 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X3" t="n">
         <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -1028,16 +1028,16 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1049,13 +1049,13 @@
         <v>4.33</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
@@ -1073,10 +1073,10 @@
         <v>81</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>1.53</v>
@@ -1308,7 +1308,7 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1323,16 +1323,16 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1341,16 +1341,16 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>11</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1434,10 +1434,10 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1481,7 +1481,7 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1541,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
         <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
@@ -1681,34 +1681,34 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1723,13 +1723,13 @@
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,19 +1738,19 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1771,10 +1771,10 @@
         <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1801,7 +1801,7 @@
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>176</v>
@@ -1842,7 +1842,7 @@
         <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>4.75</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1916,7 +1916,9 @@
       <c r="AF8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
       <c r="AH8" t="n">
         <v>10</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1960,7 +1962,7 @@
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
@@ -1984,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2019,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.91</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2049,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2064,19 +2066,19 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2106,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2124,16 +2126,16 @@
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
@@ -2148,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2234,7 +2236,7 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2246,7 +2248,7 @@
         <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2565,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="J12" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2601,31 +2603,31 @@
         <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2646,64 +2648,64 @@
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AM12" t="n">
         <v>35</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>70</v>
       </c>
-      <c r="AS12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>80</v>
-      </c>
       <c r="BA12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -2929,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
         <v>8.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
@@ -2962,7 +2964,7 @@
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2971,10 +2973,10 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
         <v>7.9</v>
@@ -2983,7 +2985,7 @@
         <v>6.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
         <v>8.5</v>
@@ -3001,13 +3003,13 @@
         <v>9.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -3031,13 +3033,13 @@
         <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP14" t="n">
         <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>40</v>
@@ -3049,13 +3051,13 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AX14" t="n">
         <v>45</v>
@@ -3070,7 +3072,7 @@
         <v>300</v>
       </c>
       <c r="BB14" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3296,7 +3298,7 @@
         <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
         <v>1.83</v>
@@ -3320,7 +3322,7 @@
         <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -3350,7 +3352,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
         <v>45</v>
@@ -3362,7 +3364,7 @@
         <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3371,19 +3373,19 @@
         <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>15.5</v>
@@ -3407,31 +3409,31 @@
         <v>175</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT16" t="n">
         <v>2.67</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX16" t="n">
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
         <v>32</v>
       </c>
       <c r="BA16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB16" t="n">
         <v>250</v>
@@ -3517,7 +3519,7 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V17" t="n">
         <v>2.2</v>
@@ -3657,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="J18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3687,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3705,22 +3707,22 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB18" t="n">
         <v>51</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>67</v>
       </c>
       <c r="AC18" t="n">
         <v>15</v>
@@ -3729,7 +3731,7 @@
         <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
@@ -3744,55 +3746,55 @@
         <v>6.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
         <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AR18" t="n">
         <v>201</v>
       </c>
       <c r="AS18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>3.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA18" t="n">
         <v>41</v>
@@ -3835,22 +3837,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3859,16 +3861,16 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -3880,31 +3882,31 @@
         <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3913,40 +3915,40 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
         <v>101</v>
@@ -3961,10 +3963,10 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
@@ -4017,7 +4019,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
@@ -4197,19 +4199,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
@@ -4218,13 +4220,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
         <v>1.8</v>
@@ -4263,10 +4265,10 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4308,7 +4310,7 @@
         <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
@@ -4329,7 +4331,7 @@
         <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>81</v>
@@ -4375,28 +4377,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -4405,103 +4407,103 @@
         <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
         <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>21</v>
       </c>
-      <c r="AI22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>23</v>
-      </c>
       <c r="AK22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="n">
         <v>51</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>3.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
         <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>41</v>
@@ -4516,7 +4518,7 @@
         <v>151</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4557,22 +4559,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H23" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K23" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L23" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4596,76 +4598,76 @@
         <v>1.34</v>
       </c>
       <c r="T23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U23" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC23" t="n">
         <v>9.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM23" t="n">
         <v>300</v>
       </c>
-      <c r="AM23" t="n">
-        <v>250</v>
-      </c>
       <c r="AN23" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AR23" t="n">
         <v>50</v>
@@ -4674,22 +4676,22 @@
         <v>400</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AY23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AZ23" t="n">
         <v>700</v>
@@ -4733,139 +4735,139 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="K24" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L24" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X24" t="n">
         <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>40</v>
       </c>
-      <c r="AC24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>35</v>
-      </c>
       <c r="AF24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AM24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AR24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS24" t="n">
         <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AV24" t="n">
         <v>120</v>
       </c>
       <c r="AW24" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>80</v>
       </c>
       <c r="AY24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="n">
@@ -4907,16 +4909,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4937,10 +4939,10 @@
         <v>3.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4949,10 +4951,10 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -4970,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
@@ -4979,25 +4981,25 @@
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -5009,13 +5011,13 @@
         <v>4.33</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5024,7 +5026,7 @@
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5033,7 +5035,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -5107,22 +5109,22 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5131,10 +5133,10 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5206,7 +5208,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU26" t="n">
         <v>8.5</v>
@@ -5277,7 +5279,7 @@
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -5471,10 +5473,10 @@
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -5498,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W28" t="n">
         <v>6.5</v>
@@ -5635,22 +5637,22 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J29" t="n">
         <v>5.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5659,16 +5661,16 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5677,22 +5679,22 @@
         <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA29" t="n">
         <v>41</v>
@@ -5704,10 +5706,10 @@
         <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
@@ -5716,16 +5718,16 @@
         <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -5734,43 +5736,43 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
         <v>3.25</v>
       </c>
       <c r="AU29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>41</v>
@@ -5838,13 +5840,13 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
         <v>2.4</v>
@@ -6029,16 +6031,16 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U31" t="n">
         <v>1.62</v>
@@ -6047,10 +6049,10 @@
         <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -6071,7 +6073,7 @@
         <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -6080,13 +6082,13 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
@@ -6101,10 +6103,10 @@
         <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6116,16 +6118,16 @@
         <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU31" t="n">
         <v>7.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6181,22 +6183,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6232,19 +6234,19 @@
         <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
         <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -6253,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -6262,28 +6264,28 @@
         <v>126</v>
       </c>
       <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO32" t="n">
         <v>13</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6316,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
         <v>51</v>
@@ -6366,7 +6368,7 @@
         <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
         <v>4.75</v>
@@ -6375,43 +6377,43 @@
         <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L33" t="n">
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V33" t="n">
         <v>2.2</v>
       </c>
-      <c r="S33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
@@ -6429,10 +6431,10 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -6462,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
         <v>8.5</v>
@@ -6480,13 +6482,13 @@
         <v>101</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW33" t="n">
         <v>6.5</v>
@@ -6495,10 +6497,10 @@
         <v>23</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA33" t="n">
         <v>81</v>
@@ -6545,13 +6547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.2</v>
@@ -6560,16 +6562,16 @@
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -6596,7 +6598,7 @@
         <v>10</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -6647,7 +6649,7 @@
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
@@ -6730,7 +6732,7 @@
         <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
         <v>4.5</v>
@@ -6745,7 +6747,7 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
         <v>13</v>
@@ -6754,13 +6756,13 @@
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6784,7 +6786,7 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
         <v>13</v>
@@ -6793,7 +6795,7 @@
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
         <v>8</v>
@@ -6808,7 +6810,7 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
@@ -6841,7 +6843,7 @@
         <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT35" t="n">
         <v>3</v>
@@ -6862,13 +6864,13 @@
         <v>34</v>
       </c>
       <c r="AZ35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA35" t="n">
         <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -7259,37 +7261,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J38" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R38" t="n">
         <v>1.7</v>
@@ -7301,22 +7303,22 @@
         <v>2.57</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X38" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA38" t="n">
         <v>45</v>
@@ -7325,13 +7327,13 @@
         <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF38" t="n">
         <v>80</v>
@@ -7340,34 +7342,34 @@
         <v>700</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL38" t="n">
         <v>15</v>
       </c>
       <c r="AM38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP38" t="n">
         <v>29</v>
       </c>
-      <c r="AN38" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR38" t="n">
         <v>175</v>
@@ -7376,7 +7378,7 @@
         <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU38" t="n">
         <v>7.2</v>
@@ -7385,13 +7387,13 @@
         <v>65</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AX38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ38" t="n">
         <v>30</v>
@@ -7400,7 +7402,7 @@
         <v>60</v>
       </c>
       <c r="BB38" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7437,13 +7439,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
         <v>3</v>
@@ -7461,10 +7463,10 @@
         <v>5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q39" t="n">
         <v>2.88</v>
@@ -7479,10 +7481,10 @@
         <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
         <v>5</v>
@@ -7512,7 +7514,7 @@
         <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
@@ -7522,10 +7524,10 @@
         <v>19</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL39" t="n">
         <v>41</v>
@@ -7540,7 +7542,7 @@
         <v>13</v>
       </c>
       <c r="AP39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
@@ -7617,19 +7619,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L40" t="n">
         <v>5</v>
@@ -7641,64 +7643,64 @@
         <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X40" t="n">
         <v>8</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
         <v>19</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD40" t="n">
         <v>6.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG40" t="n">
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI40" t="n">
         <v>21</v>
@@ -7707,7 +7709,7 @@
         <v>15</v>
       </c>
       <c r="AK40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL40" t="n">
         <v>41</v>
@@ -7731,16 +7733,16 @@
         <v>67</v>
       </c>
       <c r="AS40" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW40" t="n">
         <v>6</v>
@@ -7755,7 +7757,7 @@
         <v>101</v>
       </c>
       <c r="BA40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB40" t="n">
         <v>351</v>
@@ -7795,22 +7797,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.5</v>
       </c>
-      <c r="K41" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -7819,16 +7821,16 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R41" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7837,46 +7839,46 @@
         <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
         <v>21</v>
@@ -7885,25 +7887,25 @@
         <v>12</v>
       </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
@@ -7921,16 +7923,16 @@
         <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA41" t="n">
         <v>51</v>
@@ -7939,7 +7941,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7977,7 +7979,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>6</v>
@@ -7998,7 +8000,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O42" t="n">
         <v>1.06</v>
@@ -8007,10 +8009,10 @@
         <v>10</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S42" t="n">
         <v>1.17</v>
@@ -8159,13 +8161,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
@@ -8341,22 +8343,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K44" t="n">
         <v>2.38</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8377,10 +8379,10 @@
         <v>2.35</v>
       </c>
       <c r="S44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U44" t="n">
         <v>1.5</v>
@@ -8398,7 +8400,7 @@
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8428,13 +8430,13 @@
         <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM44" t="n">
         <v>26</v>
@@ -8443,7 +8445,7 @@
         <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP44" t="n">
         <v>17</v>
@@ -8458,7 +8460,7 @@
         <v>101</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU44" t="n">
         <v>7</v>
@@ -8479,7 +8481,7 @@
         <v>51</v>
       </c>
       <c r="BA44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB44" t="n">
         <v>126</v>
@@ -8523,13 +8525,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J45" t="n">
         <v>2.3</v>
@@ -8538,7 +8540,7 @@
         <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8571,7 +8573,7 @@
         <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X45" t="n">
         <v>9.5</v>
@@ -8607,13 +8609,13 @@
         <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
         <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
@@ -8631,7 +8633,7 @@
         <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
@@ -8649,7 +8651,7 @@
         <v>41</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX45" t="n">
         <v>21</v>
@@ -8735,10 +8737,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8887,40 +8889,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -8929,28 +8931,28 @@
         <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
         <v>21</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
@@ -8968,16 +8970,16 @@
         <v>151</v>
       </c>
       <c r="AH47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
         <v>19</v>
@@ -8986,16 +8988,16 @@
         <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO47" t="n">
         <v>15</v>
       </c>
       <c r="AP47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR47" t="n">
         <v>67</v>
@@ -9013,7 +9015,7 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX47" t="n">
         <v>13</v>
@@ -9084,7 +9086,7 @@
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -9281,7 +9283,7 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
         <v>2.3</v>
@@ -9433,22 +9435,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K50" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9463,7 +9465,7 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
         <v>2.2</v>
@@ -9475,10 +9477,10 @@
         <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W50" t="n">
         <v>7</v>
@@ -9487,13 +9489,13 @@
         <v>6</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB50" t="n">
         <v>34</v>
@@ -9505,10 +9507,10 @@
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG50" t="n">
         <v>451</v>
@@ -9523,13 +9525,13 @@
         <v>26</v>
       </c>
       <c r="AK50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="n">
         <v>67</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>51</v>
       </c>
       <c r="AN50" t="n">
         <v>3.1</v>
@@ -9541,7 +9543,7 @@
         <v>19</v>
       </c>
       <c r="AQ50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR50" t="n">
         <v>41</v>
@@ -9553,7 +9555,7 @@
         <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV50" t="n">
         <v>67</v>
@@ -9568,13 +9570,13 @@
         <v>51</v>
       </c>
       <c r="AZ50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB50" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC50" t="n">
         <v>126</v>
@@ -9639,16 +9641,16 @@
         <v>8.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R51" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9797,13 +9799,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J52" t="n">
         <v>3.4</v>
@@ -9812,13 +9814,13 @@
         <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -9827,10 +9829,10 @@
         <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S52" t="n">
         <v>1.5</v>
@@ -9863,7 +9865,7 @@
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
         <v>6.5</v>
@@ -9875,7 +9877,7 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -9893,13 +9895,13 @@
         <v>23</v>
       </c>
       <c r="AM52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP52" t="n">
         <v>29</v>
@@ -9979,46 +9981,46 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K53" t="n">
         <v>2.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.25</v>
       </c>
       <c r="L53" t="n">
         <v>2.88</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U53" t="n">
         <v>1.53</v>
@@ -10033,7 +10035,7 @@
         <v>17</v>
       </c>
       <c r="Y53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
         <v>29</v>
@@ -10060,10 +10062,10 @@
         <v>101</v>
       </c>
       <c r="AH53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ53" t="n">
         <v>10</v>
@@ -10072,7 +10074,7 @@
         <v>23</v>
       </c>
       <c r="AL53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="n">
         <v>23</v>
@@ -10096,7 +10098,7 @@
         <v>126</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU53" t="n">
         <v>7.5</v>
@@ -10161,7 +10163,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
@@ -10185,10 +10187,10 @@
         <v>7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q54" t="n">
         <v>2.5</v>
@@ -10343,16 +10345,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
         <v>2.32</v>
@@ -10370,7 +10372,7 @@
         <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q55" t="n">
         <v>1.53</v>
@@ -10382,25 +10384,25 @@
         <v>1.29</v>
       </c>
       <c r="T55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W55" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X55" t="n">
         <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z55" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA55" t="n">
         <v>25</v>
@@ -10424,22 +10426,22 @@
         <v>200</v>
       </c>
       <c r="AH55" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM55" t="n">
         <v>19</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>18.5</v>
       </c>
       <c r="AN55" t="n">
         <v>5.6</v>
@@ -10460,16 +10462,16 @@
         <v>175</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU55" t="n">
         <v>6.4</v>
       </c>
       <c r="AV55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AX55" t="n">
         <v>9.75</v>
@@ -10523,91 +10525,91 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I56" t="n">
         <v>5.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K56" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L56" t="n">
         <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="S56" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T56" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="U56" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V56" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="W56" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE56" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG56" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH56" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ56" t="n">
         <v>16</v>
@@ -10619,52 +10621,52 @@
         <v>45</v>
       </c>
       <c r="AM56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO56" t="n">
         <v>7.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS56" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AU56" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AX56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY56" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ56" t="n">
         <v>150</v>
       </c>
       <c r="BA56" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB56" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
@@ -10710,7 +10712,7 @@
         <v>3.6</v>
       </c>
       <c r="J57" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
@@ -10731,7 +10733,7 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R57" t="n">
         <v>2.15</v>
@@ -10886,142 +10888,142 @@
         <v>1.34</v>
       </c>
       <c r="H58" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="I58" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L58" t="n">
         <v>7.5</v>
       </c>
-      <c r="J58" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L58" t="n">
-        <v>7</v>
-      </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S58" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="T58" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="U58" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="V58" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W58" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="X58" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA58" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AD58" t="n">
         <v>9.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF58" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG58" t="n">
         <v>900</v>
       </c>
       <c r="AH58" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK58" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL58" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM58" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO58" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP58" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR58" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AX58" t="n">
         <v>50</v>
       </c>
-      <c r="AS58" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>45</v>
-      </c>
       <c r="AY58" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AZ58" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BA58" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BB58" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,34 +777,34 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,25 +813,25 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -843,13 +843,13 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -864,34 +864,34 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -971,7 +971,7 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
         <v>2.1</v>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1025,13 +1025,13 @@
         <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>9.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1040,7 +1040,7 @@
         <v>126</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1076,7 +1076,7 @@
         <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,25 +1141,25 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.8</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
@@ -1168,31 +1168,31 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1249,13 +1249,13 @@
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1323,22 +1323,22 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1362,16 +1362,16 @@
         <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1380,10 +1380,10 @@
         <v>67</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1490,7 +1490,7 @@
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1511,7 +1511,7 @@
         <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
         <v>3.25</v>
@@ -1523,7 +1523,7 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1532,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1660,10 +1660,10 @@
         <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.73</v>
@@ -1681,10 +1681,10 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.33</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1729,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
@@ -1854,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1875,10 +1875,10 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1953,13 +1953,13 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.95</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2066,19 +2066,19 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,22 +2120,22 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
@@ -2150,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
@@ -2236,7 +2236,7 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2248,7 +2248,7 @@
         <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2263,7 +2263,7 @@
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2287,7 +2287,7 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2344,7 +2344,7 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
@@ -2576,13 +2576,13 @@
         <v>2.77</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2606,7 +2606,7 @@
         <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U12" t="n">
         <v>1.75</v>
@@ -2615,22 +2615,22 @@
         <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
         <v>20</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
         <v>6.9</v>
@@ -2651,19 +2651,19 @@
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN12" t="n">
         <v>4.4</v>
@@ -2672,19 +2672,19 @@
         <v>12.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
@@ -2693,22 +2693,22 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA12" t="n">
         <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L13" t="n">
         <v>3.35</v>
@@ -2770,7 +2770,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
@@ -2785,10 +2785,10 @@
         <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T13" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U13" t="n">
         <v>1.62</v>
@@ -2797,16 +2797,16 @@
         <v>2.15</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>18</v>
@@ -2815,10 +2815,10 @@
         <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE13" t="n">
         <v>12.5</v>
@@ -2830,13 +2830,13 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK13" t="n">
         <v>35</v>
@@ -2845,13 +2845,13 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
         <v>4.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>19.5</v>
@@ -2866,7 +2866,7 @@
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU13" t="n">
         <v>6.8</v>
@@ -2875,19 +2875,19 @@
         <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
         <v>250</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,19 +2955,19 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
         <v>3.25</v>
@@ -2979,19 +2979,19 @@
         <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB14" t="n">
         <v>24</v>
@@ -3000,49 +3000,49 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM14" t="n">
         <v>90</v>
       </c>
-      <c r="AM14" t="n">
-        <v>70</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS14" t="n">
         <v>175</v>
@@ -3051,25 +3051,25 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AY14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AZ14" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BA14" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB14" t="n">
         <v>500</v>
@@ -3113,46 +3113,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L15" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
         <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="U15" t="n">
         <v>1.98</v>
@@ -3161,7 +3161,7 @@
         <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
         <v>7.4</v>
@@ -3179,10 +3179,10 @@
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3197,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
@@ -3206,7 +3206,7 @@
         <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
@@ -3215,7 +3215,7 @@
         <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP15" t="n">
         <v>20</v>
@@ -3230,10 +3230,10 @@
         <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV15" t="n">
         <v>80</v>
@@ -3519,7 +3519,7 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
         <v>2.2</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>2.63</v>
@@ -3689,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3707,10 +3707,10 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y18" t="n">
         <v>26</v>
@@ -3719,7 +3719,7 @@
         <v>101</v>
       </c>
       <c r="AA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3728,37 +3728,37 @@
         <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3767,25 +3767,25 @@
         <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
@@ -3797,10 +3797,10 @@
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3867,10 +3867,10 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -3879,25 +3879,25 @@
         <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
         <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -3921,31 +3921,31 @@
         <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3963,10 +3963,10 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>126</v>
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
         <v>4.5</v>
@@ -4070,13 +4070,13 @@
         <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -4124,10 +4124,10 @@
         <v>8.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4148,7 +4148,7 @@
         <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4199,46 +4199,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
         <v>1.8</v>
@@ -4250,94 +4250,94 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
         <v>17</v>
       </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>
@@ -4389,7 +4389,7 @@
         <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L22" t="n">
         <v>7</v>
@@ -4401,31 +4401,31 @@
         <v>19</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4443,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -4458,7 +4458,7 @@
         <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4476,28 +4476,28 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS22" t="n">
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4509,16 +4509,16 @@
         <v>41</v>
       </c>
       <c r="AY22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
         <v>151</v>
       </c>
       <c r="BA22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4559,88 +4559,88 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H23" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
         <v>16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K23" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="L23" t="n">
         <v>11.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="U23" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X23" t="n">
         <v>5.7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>11.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF23" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>150</v>
@@ -4649,40 +4649,40 @@
         <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL23" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AM23" t="n">
         <v>300</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AO23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU23" t="n">
         <v>11.75</v>
       </c>
-      <c r="AR23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>12</v>
-      </c>
       <c r="AV23" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AW23" t="n">
         <v>13.5</v>
@@ -4691,7 +4691,7 @@
         <v>110</v>
       </c>
       <c r="AY23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AZ23" t="n">
         <v>700</v>
@@ -4735,46 +4735,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K24" t="n">
         <v>2.7</v>
       </c>
       <c r="L24" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S24" t="n">
         <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
         <v>2.4</v>
@@ -4792,7 +4792,7 @@
         <v>10.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
@@ -4801,70 +4801,70 @@
         <v>45</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="n">
         <v>2.95</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AP24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AR24" t="n">
         <v>40</v>
       </c>
       <c r="AS24" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AY24" t="n">
         <v>75</v>
@@ -4909,19 +4909,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
         <v>3.6</v>
@@ -4933,16 +4933,16 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4951,16 +4951,16 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4972,10 +4972,10 @@
         <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -4987,13 +4987,13 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -5002,22 +5002,22 @@
         <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5026,7 +5026,7 @@
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5121,7 +5121,7 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
         <v>1.62</v>
@@ -5208,7 +5208,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
         <v>8.5</v>
@@ -5273,13 +5273,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -5288,7 +5288,7 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5303,10 +5303,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5315,10 +5315,10 @@
         <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
@@ -5372,7 +5372,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
@@ -5384,7 +5384,7 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5411,7 +5411,7 @@
         <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H28" t="n">
         <v>4.75</v>
@@ -5470,43 +5470,43 @@
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5518,7 +5518,7 @@
         <v>12</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>13</v>
@@ -5527,7 +5527,7 @@
         <v>9.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
@@ -5548,10 +5548,10 @@
         <v>67</v>
       </c>
       <c r="AL28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
         <v>3.4</v>
@@ -5569,22 +5569,22 @@
         <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU28" t="n">
         <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY28" t="n">
         <v>41</v>
@@ -5637,19 +5637,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
         <v>5.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
         <v>2.1</v>
@@ -5661,16 +5661,16 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5679,16 +5679,16 @@
         <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
         <v>15</v>
@@ -5703,7 +5703,7 @@
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>8.5</v>
@@ -5715,7 +5715,7 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5742,7 +5742,7 @@
         <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>101</v>
@@ -5766,7 +5766,7 @@
         <v>3.6</v>
       </c>
       <c r="AX29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5778,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5849,10 +5849,10 @@
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
         <v>1.53</v>
@@ -6195,7 +6195,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
         <v>3.2</v>
@@ -6207,16 +6207,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6225,13 +6225,13 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
         <v>15</v>
@@ -6246,7 +6246,7 @@
         <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -6261,7 +6261,7 @@
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH32" t="n">
         <v>12</v>
@@ -6312,7 +6312,7 @@
         <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
@@ -6324,7 +6324,7 @@
         <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC32" t="n">
         <v>351</v>
@@ -6377,43 +6377,43 @@
         <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
@@ -6431,10 +6431,10 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -6464,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
         <v>8.5</v>
@@ -6482,13 +6482,13 @@
         <v>101</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
         <v>6.5</v>
@@ -6497,10 +6497,10 @@
         <v>23</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA33" t="n">
         <v>81</v>
@@ -6547,13 +6547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
         <v>3.2</v>
@@ -6562,16 +6562,16 @@
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -6598,7 +6598,7 @@
         <v>10</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -6649,7 +6649,7 @@
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
@@ -6729,58 +6729,58 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
         <v>2.25</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6792,25 +6792,25 @@
         <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>8</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
@@ -6822,34 +6822,34 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO35" t="n">
         <v>8.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
         <v>26</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6858,19 +6858,19 @@
         <v>6.5</v>
       </c>
       <c r="AX35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY35" t="n">
         <v>26</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>34</v>
       </c>
       <c r="AZ35" t="n">
         <v>81</v>
       </c>
       <c r="BA35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -7439,10 +7439,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
         <v>4.33</v>
@@ -7469,10 +7469,10 @@
         <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
         <v>1.67</v>
@@ -7481,10 +7481,10 @@
         <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W39" t="n">
         <v>5</v>
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
@@ -7643,10 +7643,10 @@
         <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q40" t="n">
         <v>2.5</v>
@@ -7797,58 +7797,58 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.5</v>
       </c>
       <c r="L41" t="n">
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
         <v>9.5</v>
@@ -7857,19 +7857,19 @@
         <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
         <v>29</v>
@@ -7896,34 +7896,34 @@
         <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
       </c>
       <c r="AS41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU41" t="n">
         <v>7</v>
       </c>
       <c r="AV41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX41" t="n">
         <v>15</v>
@@ -7938,10 +7938,10 @@
         <v>51</v>
       </c>
       <c r="BB41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7979,19 +7979,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L42" t="n">
         <v>6</v>
@@ -8003,10 +8003,10 @@
         <v>34</v>
       </c>
       <c r="O42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q42" t="n">
         <v>1.22</v>
@@ -8015,10 +8015,10 @@
         <v>4.2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="T42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U42" t="n">
         <v>1.44</v>
@@ -8078,13 +8078,13 @@
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO42" t="n">
         <v>6.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ42" t="n">
         <v>13</v>
@@ -8096,7 +8096,7 @@
         <v>51</v>
       </c>
       <c r="AT42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU42" t="n">
         <v>7.5</v>
@@ -8161,13 +8161,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
@@ -8343,16 +8343,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
         <v>2.38</v>
@@ -8385,25 +8385,25 @@
         <v>3.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W44" t="n">
+        <v>10</v>
+      </c>
+      <c r="X44" t="n">
         <v>11</v>
-      </c>
-      <c r="X44" t="n">
-        <v>12</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
         <v>21</v>
@@ -8412,16 +8412,16 @@
         <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -8439,7 +8439,7 @@
         <v>26</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
@@ -8451,7 +8451,7 @@
         <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8469,13 +8469,13 @@
         <v>41</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
@@ -8707,13 +8707,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -8722,7 +8722,7 @@
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8743,10 +8743,10 @@
         <v>2.08</v>
       </c>
       <c r="S46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.62</v>
@@ -8755,7 +8755,7 @@
         <v>2.2</v>
       </c>
       <c r="W46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X46" t="n">
         <v>13</v>
@@ -8767,13 +8767,13 @@
         <v>23</v>
       </c>
       <c r="AA46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8803,7 +8803,7 @@
         <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN46" t="n">
         <v>4.5</v>
@@ -8824,13 +8824,13 @@
         <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU46" t="n">
         <v>7.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW46" t="n">
         <v>5</v>
@@ -8839,16 +8839,16 @@
         <v>15</v>
       </c>
       <c r="AY46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ46" t="n">
         <v>51</v>
       </c>
       <c r="BA46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC46" t="n">
         <v>501</v>
@@ -8889,28 +8889,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.25</v>
@@ -8937,13 +8937,13 @@
         <v>2.1</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
         <v>29</v>
@@ -8952,7 +8952,7 @@
         <v>21</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
@@ -8973,13 +8973,13 @@
         <v>9.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
         <v>19</v>
@@ -8988,7 +8988,7 @@
         <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO47" t="n">
         <v>15</v>
@@ -9015,7 +9015,7 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX47" t="n">
         <v>13</v>
@@ -9086,7 +9086,7 @@
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -9283,7 +9283,7 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
         <v>2.3</v>
@@ -9441,16 +9441,16 @@
         <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9465,7 +9465,7 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
         <v>2.2</v>
@@ -9477,16 +9477,16 @@
         <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W50" t="n">
         <v>7</v>
       </c>
       <c r="X50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y50" t="n">
         <v>10</v>
@@ -9516,13 +9516,13 @@
         <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK50" t="n">
         <v>151</v>
@@ -9558,10 +9558,10 @@
         <v>11</v>
       </c>
       <c r="AV50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX50" t="n">
         <v>51</v>
@@ -9570,7 +9570,7 @@
         <v>51</v>
       </c>
       <c r="AZ50" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA50" t="n">
         <v>301</v>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -9653,10 +9653,10 @@
         <v>1.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
         <v>1000</v>
@@ -9716,7 +9716,7 @@
         <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO51" t="n">
         <v>34</v>
@@ -9734,7 +9734,7 @@
         <v>500</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
         <v>3.4</v>
@@ -9814,7 +9814,7 @@
         <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -9877,7 +9877,7 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -9895,13 +9895,13 @@
         <v>23</v>
       </c>
       <c r="AM52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP52" t="n">
         <v>29</v>
@@ -9981,13 +9981,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
@@ -9996,37 +9996,37 @@
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S53" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V53" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W53" t="n">
         <v>13</v>
@@ -10044,13 +10044,13 @@
         <v>21</v>
       </c>
       <c r="AB53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE53" t="n">
         <v>11</v>
@@ -10074,10 +10074,10 @@
         <v>23</v>
       </c>
       <c r="AL53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN53" t="n">
         <v>5</v>
@@ -10095,13 +10095,13 @@
         <v>51</v>
       </c>
       <c r="AS53" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV53" t="n">
         <v>41</v>
@@ -10163,7 +10163,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
@@ -10187,10 +10187,10 @@
         <v>7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q54" t="n">
         <v>2.5</v>
@@ -10528,10 +10528,10 @@
         <v>1.57</v>
       </c>
       <c r="H56" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J56" t="n">
         <v>2.07</v>
@@ -10552,7 +10552,7 @@
         <v>1.19</v>
       </c>
       <c r="P56" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q56" t="n">
         <v>1.57</v>
@@ -10585,10 +10585,10 @@
         <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
         <v>8.75</v>
@@ -10606,16 +10606,16 @@
         <v>350</v>
       </c>
       <c r="AH56" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI56" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ56" t="n">
         <v>16</v>
       </c>
       <c r="AK56" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL56" t="n">
         <v>45</v>
@@ -10630,7 +10630,7 @@
         <v>7.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ56" t="n">
         <v>22</v>
@@ -10645,25 +10645,25 @@
         <v>3.15</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV56" t="n">
         <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AX56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY56" t="n">
         <v>28</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>29</v>
       </c>
       <c r="AZ56" t="n">
         <v>150</v>
       </c>
       <c r="BA56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB56" t="n">
         <v>300</v>
@@ -10703,46 +10703,46 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T57" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N57" t="n">
-        <v>13</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T57" t="n">
-        <v>3.25</v>
       </c>
       <c r="U57" t="n">
         <v>1.57</v>
@@ -10754,25 +10754,25 @@
         <v>9.5</v>
       </c>
       <c r="X57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
       </c>
       <c r="AC57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE57" t="n">
         <v>12</v>
@@ -10784,7 +10784,7 @@
         <v>126</v>
       </c>
       <c r="AH57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI57" t="n">
         <v>21</v>
@@ -10796,31 +10796,31 @@
         <v>41</v>
       </c>
       <c r="AL57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM57" t="n">
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR57" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS57" t="n">
         <v>101</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU57" t="n">
         <v>7.5</v>
@@ -10829,10 +10829,10 @@
         <v>41</v>
       </c>
       <c r="AW57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY57" t="n">
         <v>23</v>
@@ -10885,22 +10885,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H58" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I58" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J58" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K58" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L58" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -10912,22 +10912,22 @@
         <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="n">
         <v>1.4</v>
       </c>
       <c r="T58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U58" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="V58" t="n">
         <v>1.57</v>
@@ -10936,13 +10936,13 @@
         <v>5.8</v>
       </c>
       <c r="X58" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA58" t="n">
         <v>12.5</v>
@@ -10954,7 +10954,7 @@
         <v>7.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE58" t="n">
         <v>26</v>
@@ -10966,19 +10966,19 @@
         <v>900</v>
       </c>
       <c r="AH58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK58" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM58" t="n">
         <v>110</v>
@@ -10987,13 +10987,13 @@
         <v>3</v>
       </c>
       <c r="AO58" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP58" t="n">
         <v>20</v>
       </c>
       <c r="AQ58" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR58" t="n">
         <v>60</v>
@@ -11002,28 +11002,28 @@
         <v>350</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU58" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV58" t="n">
         <v>120</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX58" t="n">
         <v>50</v>
       </c>
       <c r="AY58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ58" t="n">
+        <v>400</v>
+      </c>
+      <c r="BA58" t="n">
         <v>450</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>500</v>
       </c>
       <c r="BB58" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -765,34 +765,34 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -807,25 +807,25 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -834,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
@@ -944,7 +944,7 @@
         <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -980,7 +980,7 @@
         <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
@@ -1028,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1076,7 +1076,7 @@
         <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1329,7 +1329,7 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
         <v>4.5</v>
@@ -1341,13 +1341,13 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
         <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>8</v>
@@ -1362,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1371,25 +1371,25 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>67</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1511,7 +1511,7 @@
         <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
         <v>3.25</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
         <v>8.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
         <v>1.08</v>
@@ -1687,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1705,13 +1705,13 @@
         <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
         <v>10</v>
@@ -1723,13 +1723,13 @@
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,16 +1738,16 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1765,7 +1765,7 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
@@ -1774,7 +1774,7 @@
         <v>67</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1792,7 +1792,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1857,10 +1857,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1875,10 +1875,10 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1890,7 +1890,7 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1899,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1920,7 +1920,7 @@
         <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1938,10 +1938,10 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1953,10 +1953,10 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1986,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2039,22 +2039,22 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2063,16 +2063,16 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
@@ -2102,7 +2102,7 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2123,7 +2123,7 @@
         <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2147,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2156,7 +2156,7 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
         <v>151</v>
@@ -2567,148 +2567,148 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO12" t="n">
         <v>14</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV12" t="n">
         <v>65</v>
       </c>
-      <c r="AG12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AW12" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX12" t="n">
         <v>14</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="AY12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>60</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>65</v>
       </c>
       <c r="BA12" t="n">
         <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2785,34 +2785,34 @@
         <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T13" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
         <v>8.75</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
@@ -2830,43 +2830,43 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
         <v>35</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU13" t="n">
         <v>6.8</v>
@@ -2875,22 +2875,22 @@
         <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2931,76 +2931,76 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K14" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AA14" t="n">
         <v>10.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -3009,22 +3009,22 @@
         <v>90</v>
       </c>
       <c r="AG14" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AK14" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AL14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
@@ -3033,40 +3033,40 @@
         <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AP14" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS14" t="n">
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AY14" t="n">
         <v>50</v>
       </c>
       <c r="AZ14" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BA14" t="n">
         <v>400</v>
@@ -3113,97 +3113,97 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
         <v>4.85</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>50</v>
@@ -3212,16 +3212,16 @@
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR15" t="n">
         <v>70</v>
@@ -3230,31 +3230,31 @@
         <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ15" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA15" t="n">
         <v>200</v>
       </c>
       <c r="BB15" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,37 +3295,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="H16" t="n">
         <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>1.65</v>
@@ -3334,58 +3334,58 @@
         <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>15.5</v>
@@ -3394,43 +3394,43 @@
         <v>32</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>30</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>32</v>
       </c>
       <c r="BA16" t="n">
         <v>65</v>
@@ -3501,16 +3501,16 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3707,100 +3707,100 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AB18" t="n">
         <v>101</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>51</v>
       </c>
       <c r="AC18" t="n">
         <v>15</v>
       </c>
       <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>10</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AK18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY18" t="n">
         <v>19</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="AZ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
         <v>151</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>101</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -3843,13 +3843,13 @@
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
         <v>3.6</v>
@@ -3942,7 +3942,7 @@
         <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>34</v>
@@ -4034,7 +4034,7 @@
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4043,16 +4043,16 @@
         <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4067,7 +4067,7 @@
         <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
         <v>9.5</v>
@@ -4100,10 +4100,10 @@
         <v>126</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -4205,13 +4205,13 @@
         <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
         <v>2.05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
         <v>6</v>
@@ -4229,10 +4229,10 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4247,7 +4247,7 @@
         <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>7.5</v>
@@ -4277,7 +4277,7 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
         <v>7.5</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
         <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.8</v>
@@ -4392,7 +4392,7 @@
         <v>2.63</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4434,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
@@ -4449,28 +4449,28 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4479,13 +4479,13 @@
         <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
         <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
         <v>34</v>
@@ -4506,13 +4506,13 @@
         <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA22" t="n">
         <v>126</v>
@@ -4559,115 +4559,115 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H23" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I23" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="K23" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
         <v>6.2</v>
       </c>
       <c r="X23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
       </c>
       <c r="AB23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
         <v>50</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>45</v>
-      </c>
       <c r="AF23" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
         <v>900</v>
       </c>
       <c r="AL23" t="n">
+        <v>450</v>
+      </c>
+      <c r="AM23" t="n">
         <v>350</v>
       </c>
-      <c r="AM23" t="n">
-        <v>300</v>
-      </c>
       <c r="AN23" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AO23" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AP23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR23" t="n">
         <v>45</v>
@@ -4676,22 +4676,22 @@
         <v>350</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AW23" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AY23" t="n">
         <v>110</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>90</v>
       </c>
       <c r="AZ23" t="n">
         <v>700</v>
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.53</v>
@@ -4750,34 +4750,34 @@
         <v>2.7</v>
       </c>
       <c r="L24" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.5</v>
@@ -4789,7 +4789,7 @@
         <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
         <v>6.6</v>
@@ -4801,25 +4801,25 @@
         <v>45</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
         <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
@@ -4834,13 +4834,13 @@
         <v>250</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO24" t="n">
         <v>4.7</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>10.75</v>
@@ -4849,25 +4849,25 @@
         <v>40</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX24" t="n">
         <v>110</v>
       </c>
-      <c r="AW24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>100</v>
-      </c>
       <c r="AY24" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="n">
@@ -5097,13 +5097,13 @@
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>3.75</v>
@@ -5112,7 +5112,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -5127,25 +5127,25 @@
         <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -5157,22 +5157,22 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
         <v>351</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
@@ -5187,40 +5187,40 @@
         <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="n">
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
         <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5232,7 +5232,7 @@
         <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5303,10 +5303,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5461,88 +5461,88 @@
         <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J28" t="n">
         <v>1.95</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>12</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>67</v>
@@ -5554,13 +5554,13 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO28" t="n">
         <v>7</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>21</v>
@@ -5572,10 +5572,10 @@
         <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5587,16 +5587,16 @@
         <v>34</v>
       </c>
       <c r="AY28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5652,7 +5652,7 @@
         <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5673,10 +5673,10 @@
         <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
         <v>1.73</v>
@@ -5685,13 +5685,13 @@
         <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
         <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="n">
         <v>51</v>
@@ -5718,7 +5718,7 @@
         <v>201</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5727,16 +5727,16 @@
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -5754,7 +5754,7 @@
         <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5772,7 +5772,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
         <v>41</v>
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.2</v>
@@ -5831,10 +5831,10 @@
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -5855,10 +5855,10 @@
         <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U30" t="n">
         <v>2.1</v>
@@ -5879,22 +5879,22 @@
         <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB30" t="n">
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG30" t="n">
         <v>351</v>
@@ -5903,7 +5903,7 @@
         <v>6.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
         <v>19</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
         <v>67</v>
@@ -5936,7 +5936,7 @@
         <v>301</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
@@ -6007,22 +6007,22 @@
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
@@ -6043,13 +6043,13 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -6079,7 +6079,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH31" t="n">
         <v>12</v>
@@ -6088,7 +6088,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
@@ -6097,13 +6097,13 @@
         <v>23</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6127,13 +6127,13 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
         <v>51</v>
@@ -6142,7 +6142,7 @@
         <v>67</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6186,7 +6186,7 @@
         <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
         <v>2.7</v>
@@ -6198,13 +6198,13 @@
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -6213,16 +6213,16 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U32" t="n">
         <v>1.5</v>
@@ -6249,7 +6249,7 @@
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
         <v>7</v>
@@ -6264,13 +6264,13 @@
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
@@ -6300,7 +6300,7 @@
         <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6315,7 +6315,7 @@
         <v>13</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6365,22 +6365,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6389,40 +6389,40 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
@@ -6431,10 +6431,10 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -6446,7 +6446,7 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>26</v>
@@ -6455,7 +6455,7 @@
         <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -6464,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
         <v>8.5</v>
@@ -6482,25 +6482,25 @@
         <v>101</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW33" t="n">
         <v>6.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA33" t="n">
         <v>81</v>
@@ -6547,22 +6547,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6598,7 +6598,7 @@
         <v>10</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -6631,7 +6631,7 @@
         <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
         <v>10</v>
@@ -6649,7 +6649,7 @@
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
@@ -6676,7 +6676,7 @@
         <v>4.75</v>
       </c>
       <c r="AX34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY34" t="n">
         <v>21</v>
@@ -7649,10 +7649,10 @@
         <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
         <v>1.57</v>
@@ -7827,10 +7827,10 @@
         <v>6.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R41" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S41" t="n">
         <v>1.22</v>
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>6.25</v>
@@ -8021,10 +8021,10 @@
         <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W42" t="n">
         <v>17</v>
@@ -8042,7 +8042,7 @@
         <v>10</v>
       </c>
       <c r="AB42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>34</v>
@@ -8060,13 +8060,13 @@
         <v>81</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK42" t="n">
         <v>81</v>
@@ -8081,7 +8081,7 @@
         <v>4.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP42" t="n">
         <v>11</v>
@@ -8105,7 +8105,7 @@
         <v>34</v>
       </c>
       <c r="AW42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX42" t="n">
         <v>29</v>
@@ -8525,16 +8525,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
         <v>2.38</v>
@@ -8573,10 +8573,10 @@
         <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8618,7 +8618,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
         <v>34</v>
@@ -8627,7 +8627,7 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
@@ -8707,22 +8707,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8731,16 +8731,16 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8749,25 +8749,25 @@
         <v>3.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
@@ -8776,7 +8776,7 @@
         <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -8788,31 +8788,31 @@
         <v>151</v>
       </c>
       <c r="AH46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ46" t="n">
         <v>11</v>
       </c>
       <c r="AK46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM46" t="n">
         <v>29</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>26</v>
       </c>
       <c r="AN46" t="n">
         <v>4.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
@@ -8836,22 +8836,22 @@
         <v>5</v>
       </c>
       <c r="AX46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ46" t="n">
         <v>51</v>
       </c>
       <c r="BA46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB46" t="n">
         <v>126</v>
       </c>
       <c r="BC46" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD46" t="n">
         <v>81</v>
@@ -8913,16 +8913,16 @@
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -9071,64 +9071,64 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
       </c>
       <c r="Z48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA48" t="n">
         <v>34</v>
@@ -9137,10 +9137,10 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE48" t="n">
         <v>17</v>
@@ -9152,19 +9152,19 @@
         <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ48" t="n">
         <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM48" t="n">
         <v>26</v>
@@ -9173,10 +9173,10 @@
         <v>6.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
         <v>81</v>
@@ -9188,7 +9188,7 @@
         <v>201</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU48" t="n">
         <v>8</v>
@@ -9200,19 +9200,19 @@
         <v>3.75</v>
       </c>
       <c r="AX48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA48" t="n">
         <v>51</v>
       </c>
       <c r="BB48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC48" t="n">
         <v>81</v>
@@ -9441,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J50" t="n">
         <v>1.67</v>
@@ -9450,7 +9450,7 @@
         <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9465,10 +9465,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S50" t="n">
         <v>1.3</v>
@@ -9477,16 +9477,16 @@
         <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W50" t="n">
         <v>7</v>
       </c>
       <c r="X50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y50" t="n">
         <v>10</v>
@@ -9516,13 +9516,13 @@
         <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK50" t="n">
         <v>151</v>
@@ -9558,10 +9558,10 @@
         <v>11</v>
       </c>
       <c r="AV50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX50" t="n">
         <v>51</v>
@@ -9570,7 +9570,7 @@
         <v>51</v>
       </c>
       <c r="AZ50" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA50" t="n">
         <v>301</v>
@@ -9617,13 +9617,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
@@ -9635,10 +9635,10 @@
         <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -9647,10 +9647,10 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>1.36</v>
@@ -9659,10 +9659,10 @@
         <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W51" t="n">
         <v>17</v>
@@ -9671,40 +9671,40 @@
         <v>34</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="n">
         <v>67</v>
       </c>
       <c r="AA51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>8</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
         <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI51" t="n">
         <v>7</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK51" t="n">
         <v>10</v>
@@ -9713,7 +9713,7 @@
         <v>13</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN51" t="n">
         <v>7.5</v>
@@ -9722,13 +9722,13 @@
         <v>34</v>
       </c>
       <c r="AP51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ51" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR51" t="n">
         <v>126</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>151</v>
       </c>
       <c r="AS51" t="n">
         <v>500</v>
@@ -9740,16 +9740,16 @@
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX51" t="n">
         <v>7.5</v>
       </c>
       <c r="AY51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ51" t="n">
         <v>21</v>
@@ -9758,7 +9758,7 @@
         <v>41</v>
       </c>
       <c r="BB51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC51" t="n">
         <v>81</v>
@@ -9817,10 +9817,10 @@
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -9829,10 +9829,10 @@
         <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
         <v>1.5</v>
@@ -9996,7 +9996,7 @@
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -10041,7 +10041,7 @@
         <v>29</v>
       </c>
       <c r="AA53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="n">
         <v>23</v>
@@ -10056,13 +10056,13 @@
         <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG53" t="n">
         <v>101</v>
       </c>
       <c r="AH53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI53" t="n">
         <v>15</v>
@@ -10083,10 +10083,10 @@
         <v>5</v>
       </c>
       <c r="AO53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>3.75</v>
@@ -10357,10 +10357,10 @@
         <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L55" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10381,10 +10381,10 @@
         <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U55" t="n">
         <v>1.5</v>
@@ -10393,31 +10393,31 @@
         <v>2.42</v>
       </c>
       <c r="W55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA55" t="n">
         <v>25</v>
       </c>
       <c r="AB55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE55" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF55" t="n">
         <v>37</v>
@@ -10426,22 +10426,22 @@
         <v>200</v>
       </c>
       <c r="AH55" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI55" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="n">
         <v>13.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN55" t="n">
         <v>5.6</v>
@@ -10450,7 +10450,7 @@
         <v>17</v>
       </c>
       <c r="AP55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ55" t="n">
         <v>75</v>
@@ -10459,31 +10459,31 @@
         <v>90</v>
       </c>
       <c r="AS55" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU55" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV55" t="n">
         <v>45</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AX55" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA55" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB55" t="n">
         <v>150</v>
@@ -10709,16 +10709,16 @@
         <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -10727,31 +10727,31 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V57" t="n">
         <v>2.2</v>
       </c>
-      <c r="S57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X57" t="n">
         <v>10</v>
@@ -10760,7 +10760,7 @@
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA57" t="n">
         <v>13</v>
@@ -10769,7 +10769,7 @@
         <v>21</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>7</v>
@@ -10781,13 +10781,13 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH57" t="n">
         <v>15</v>
       </c>
       <c r="AI57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ57" t="n">
         <v>13</v>
@@ -10799,13 +10799,13 @@
         <v>29</v>
       </c>
       <c r="AM57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN57" t="n">
         <v>4</v>
       </c>
       <c r="AO57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP57" t="n">
         <v>17</v>
@@ -10820,7 +10820,7 @@
         <v>101</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU57" t="n">
         <v>7.5</v>
@@ -10832,16 +10832,16 @@
         <v>6</v>
       </c>
       <c r="AX57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB57" t="n">
         <v>151</v>
@@ -10888,13 +10888,13 @@
         <v>1.36</v>
       </c>
       <c r="H58" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I58" t="n">
         <v>7.6</v>
       </c>
       <c r="J58" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K58" t="n">
         <v>2.27</v>
@@ -10912,52 +10912,52 @@
         <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S58" t="n">
         <v>1.4</v>
       </c>
       <c r="T58" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W58" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X58" t="n">
         <v>5.8</v>
-      </c>
-      <c r="X58" t="n">
-        <v>5.7</v>
       </c>
       <c r="Y58" t="n">
         <v>8.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC58" t="n">
         <v>7.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF58" t="n">
         <v>150</v>
@@ -10966,7 +10966,7 @@
         <v>900</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
@@ -10984,34 +10984,34 @@
         <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AO58" t="n">
         <v>6.2</v>
       </c>
       <c r="AP58" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS58" t="n">
         <v>350</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU58" t="n">
         <v>9.5</v>
       </c>
       <c r="AV58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX58" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -753,34 +753,34 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,10 +789,10 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
@@ -938,7 +938,7 @@
         <v>1.29</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.88</v>
@@ -971,10 +971,10 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
@@ -983,7 +983,7 @@
         <v>51</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>101</v>
@@ -992,10 +992,10 @@
         <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -1037,13 +1037,13 @@
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR3" t="n">
         <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>4.33</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1162,7 +1162,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1192,19 +1192,19 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1213,10 +1213,10 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1234,13 +1234,13 @@
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1249,7 +1249,7 @@
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.53</v>
@@ -1308,7 +1308,7 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1335,10 +1335,10 @@
         <v>4.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>67</v>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>11</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1434,10 +1434,10 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1478,7 +1478,7 @@
         <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.3</v>
@@ -1490,7 +1490,7 @@
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1523,7 +1523,7 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1532,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1705,16 +1705,16 @@
         <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1726,10 +1726,10 @@
         <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,19 +1738,19 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1759,13 +1759,13 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
@@ -1774,7 +1774,7 @@
         <v>67</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1804,7 +1804,7 @@
         <v>301</v>
       </c>
       <c r="BD7" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
@@ -1851,49 +1851,49 @@
         <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.57</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1902,31 +1902,31 @@
         <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1944,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1956,19 +1956,19 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,13 +1980,13 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2051,31 +2051,31 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.53</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -2084,19 +2084,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>501</v>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,10 +2120,10 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2138,37 +2138,37 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2233,10 +2233,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>2.4</v>
@@ -3128,7 +3128,7 @@
         <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3140,7 +3140,7 @@
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -3161,22 +3161,22 @@
         <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y15" t="n">
         <v>8.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
         <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
         <v>6.5</v>
@@ -3185,7 +3185,7 @@
         <v>6.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>90</v>
@@ -3194,31 +3194,31 @@
         <v>800</v>
       </c>
       <c r="AH15" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>32</v>
@@ -3233,28 +3233,28 @@
         <v>2.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV15" t="n">
         <v>75</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>32</v>
       </c>
       <c r="AZ15" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA15" t="n">
         <v>200</v>
       </c>
       <c r="BB15" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J16" t="n">
         <v>4.55</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.85</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.38</v>
@@ -3325,7 +3325,7 @@
         <v>2.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
         <v>1.65</v>
@@ -3343,28 +3343,28 @@
         <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE16" t="n">
         <v>17.5</v>
@@ -3376,37 +3376,37 @@
         <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM16" t="n">
         <v>32</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
         <v>32</v>
       </c>
       <c r="AQ16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR16" t="n">
         <v>175</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>200</v>
       </c>
       <c r="AS16" t="n">
         <v>450</v>
@@ -3415,28 +3415,28 @@
         <v>2.65</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3519,10 +3519,10 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
         <v>9.5</v>
@@ -3576,13 +3576,13 @@
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3600,16 +3600,16 @@
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3618,7 +3618,7 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3689,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3707,70 +3707,70 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>29</v>
+      </c>
+      <c r="X18" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y18" t="n">
         <v>34</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA18" t="n">
         <v>81</v>
       </c>
-      <c r="Y18" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>126</v>
-      </c>
       <c r="AB18" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>301</v>
       </c>
       <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AR18" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AS18" t="n">
         <v>301</v>
@@ -3779,31 +3779,35 @@
         <v>3.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3837,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3867,10 +3871,10 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -3879,22 +3883,22 @@
         <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
@@ -3915,7 +3919,7 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3924,25 +3928,25 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
         <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>34</v>
@@ -3966,7 +3970,7 @@
         <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
@@ -3975,7 +3979,7 @@
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
         <v>126</v>
@@ -4019,10 +4023,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
         <v>4.75</v>
@@ -4034,13 +4038,13 @@
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -4049,28 +4053,28 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.53</v>
       </c>
-      <c r="R20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
@@ -4082,13 +4086,13 @@
         <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4097,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH20" t="n">
         <v>19</v>
@@ -4133,13 +4137,13 @@
         <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
         <v>41</v>
@@ -4148,22 +4152,22 @@
         <v>6.5</v>
       </c>
       <c r="AX20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY20" t="n">
         <v>23</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>67</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="inlineStr"/>
     </row>
@@ -4380,13 +4384,13 @@
         <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
         <v>6.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K22" t="n">
         <v>2.63</v>
@@ -4419,19 +4423,19 @@
         <v>3.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
         <v>9.5</v>
@@ -4440,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>19</v>
@@ -4458,7 +4462,7 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4503,7 +4507,7 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX22" t="n">
         <v>34</v>
@@ -4741,16 +4745,16 @@
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
         <v>1.53</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L24" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -4762,7 +4766,7 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
@@ -4771,10 +4775,10 @@
         <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
         <v>2.42</v>
@@ -4816,16 +4820,16 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL24" t="n">
         <v>350</v>
@@ -4834,13 +4838,13 @@
         <v>250</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO24" t="n">
         <v>4.7</v>
       </c>
       <c r="AP24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>10.75</v>
@@ -4849,10 +4853,10 @@
         <v>40</v>
       </c>
       <c r="AS24" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4861,13 +4865,13 @@
         <v>120</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AY24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="n">
@@ -4909,7 +4913,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -4918,10 +4922,10 @@
         <v>2.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
         <v>3.6</v>
@@ -4933,10 +4937,10 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -4951,16 +4955,16 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4993,7 +4997,7 @@
         <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -5008,7 +5012,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO25" t="n">
         <v>13</v>
@@ -5017,7 +5021,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5091,28 +5095,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -5139,13 +5143,13 @@
         <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
         <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -5172,19 +5176,19 @@
         <v>351</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
       </c>
       <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
         <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5193,16 +5197,16 @@
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
         <v>201</v>
@@ -5226,10 +5230,10 @@
         <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
         <v>251</v>
@@ -5273,22 +5277,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5315,13 +5319,13 @@
         <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -5336,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -5351,7 +5355,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
         <v>9</v>
@@ -5360,25 +5364,25 @@
         <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
@@ -5393,7 +5397,7 @@
         <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5405,13 +5409,13 @@
         <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
@@ -5455,22 +5459,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
         <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5479,16 +5483,16 @@
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
         <v>1.3</v>
@@ -5497,22 +5501,22 @@
         <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>12</v>
@@ -5521,31 +5525,31 @@
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -5554,10 +5558,10 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5569,34 +5573,34 @@
         <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT28" t="n">
         <v>3.4</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY28" t="n">
         <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5643,7 +5647,7 @@
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J29" t="n">
         <v>5.5</v>
@@ -5652,7 +5656,7 @@
         <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5685,13 +5689,13 @@
         <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
         <v>51</v>
@@ -5727,16 +5731,16 @@
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -5745,7 +5749,7 @@
         <v>29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR29" t="n">
         <v>101</v>
@@ -5772,7 +5776,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>41</v>
@@ -5819,22 +5823,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -5843,22 +5847,22 @@
         <v>8</v>
       </c>
       <c r="O30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.5</v>
       </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>2.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.25</v>
       </c>
       <c r="U30" t="n">
         <v>2.1</v>
@@ -5867,67 +5871,67 @@
         <v>1.67</v>
       </c>
       <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
         <v>7</v>
       </c>
-      <c r="X30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="n">
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP30" t="n">
         <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR30" t="n">
         <v>101</v>
@@ -5936,7 +5940,7 @@
         <v>301</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
@@ -5945,22 +5949,22 @@
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6001,28 +6005,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
@@ -6049,19 +6053,19 @@
         <v>2.25</v>
       </c>
       <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
         <v>10</v>
       </c>
-      <c r="X31" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9</v>
-      </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -6082,31 +6086,31 @@
         <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM31" t="n">
         <v>23</v>
       </c>
-      <c r="AM31" t="n">
-        <v>26</v>
-      </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6127,19 +6131,19 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA31" t="n">
         <v>51</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>67</v>
       </c>
       <c r="BB31" t="n">
         <v>126</v>
@@ -6183,61 +6187,61 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V32" t="n">
         <v>2.38</v>
       </c>
-      <c r="L32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>17</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>23</v>
@@ -6246,25 +6250,25 @@
         <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
         <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -6276,16 +6280,16 @@
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6297,10 +6301,10 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6312,10 +6316,10 @@
         <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6324,7 +6328,7 @@
         <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
         <v>351</v>
@@ -6365,58 +6369,58 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6428,10 +6432,10 @@
         <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
@@ -6443,13 +6447,13 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
@@ -6458,16 +6462,16 @@
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN33" t="n">
         <v>4</v>
       </c>
       <c r="AO33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -6479,10 +6483,10 @@
         <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
@@ -6497,16 +6501,16 @@
         <v>21</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ33" t="n">
         <v>67</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC33" t="n">
         <v>351</v>
@@ -7439,28 +7443,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>2.88</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>1.83</v>
       </c>
       <c r="L39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N39" t="n">
         <v>5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.62</v>
@@ -7475,16 +7479,16 @@
         <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T39" t="n">
         <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
         <v>5</v>
@@ -7496,7 +7500,7 @@
         <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>23</v>
@@ -7505,23 +7509,23 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD39" t="n">
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
         <v>101</v>
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
         <v>17</v>
@@ -7560,13 +7564,13 @@
         <v>10</v>
       </c>
       <c r="AV39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY39" t="n">
         <v>41</v>
@@ -7575,7 +7579,7 @@
         <v>101</v>
       </c>
       <c r="BA39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB39" t="n">
         <v>501</v>
@@ -7619,13 +7623,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
@@ -7634,7 +7638,7 @@
         <v>1.95</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -7649,10 +7653,10 @@
         <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
         <v>1.57</v>
@@ -7688,28 +7692,28 @@
         <v>6.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH40" t="n">
         <v>9</v>
       </c>
       <c r="AI40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
       </c>
       <c r="AK40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="n">
         <v>41</v>
@@ -7721,7 +7725,7 @@
         <v>3.75</v>
       </c>
       <c r="AO40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -7745,19 +7749,19 @@
         <v>81</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY40" t="n">
         <v>41</v>
       </c>
       <c r="AZ40" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB40" t="n">
         <v>351</v>
@@ -7797,55 +7801,55 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>19</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R41" t="n">
         <v>2.6</v>
       </c>
-      <c r="L41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N41" t="n">
-        <v>23</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3.1</v>
-      </c>
       <c r="S41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -7854,43 +7858,43 @@
         <v>9.5</v>
       </c>
       <c r="Z41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC41" t="n">
         <v>21</v>
       </c>
-      <c r="AA41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB41" t="n">
+      <c r="AD41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
         <v>17</v>
       </c>
-      <c r="AC41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AJ41" t="n">
         <v>11</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AK41" t="n">
         <v>29</v>
       </c>
-      <c r="AG41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>34</v>
-      </c>
       <c r="AL41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="n">
         <v>21</v>
@@ -7899,31 +7903,31 @@
         <v>4.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
       </c>
       <c r="AS41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU41" t="n">
         <v>7</v>
       </c>
       <c r="AV41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX41" t="n">
         <v>15</v>
@@ -7938,10 +7942,10 @@
         <v>51</v>
       </c>
       <c r="BB41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7979,46 +7983,46 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="H42" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O42" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R42" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="T42" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="U42" t="n">
         <v>1.4</v>
@@ -8027,19 +8031,19 @@
         <v>2.75</v>
       </c>
       <c r="W42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -8048,76 +8052,76 @@
         <v>34</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
         <v>81</v>
       </c>
       <c r="AH42" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK42" t="n">
         <v>51</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>81</v>
-      </c>
       <c r="AL42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN42" t="n">
         <v>4.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AS42" t="n">
         <v>51</v>
       </c>
       <c r="AT42" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV42" t="n">
         <v>34</v>
       </c>
       <c r="AW42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX42" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY42" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB42" t="n">
         <v>101</v>
@@ -8161,19 +8165,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
         <v>2.88</v>
@@ -8185,16 +8189,16 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8203,13 +8207,13 @@
         <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X43" t="n">
         <v>17</v>
@@ -8221,7 +8225,7 @@
         <v>29</v>
       </c>
       <c r="AA43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -8233,22 +8237,22 @@
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK43" t="n">
         <v>23</v>
@@ -8266,7 +8270,7 @@
         <v>15</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8275,7 +8279,7 @@
         <v>51</v>
       </c>
       <c r="AS43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT43" t="n">
         <v>3.4</v>
@@ -8343,19 +8347,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
         <v>2.5</v>
       </c>
       <c r="K44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L44" t="n">
         <v>3.75</v>
@@ -8364,7 +8368,7 @@
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O44" t="n">
         <v>1.17</v>
@@ -8385,31 +8389,31 @@
         <v>3.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB44" t="n">
         <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD44" t="n">
         <v>7.5</v>
@@ -8421,7 +8425,7 @@
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
@@ -8430,16 +8434,16 @@
         <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
       </c>
       <c r="AL44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM44" t="n">
         <v>26</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
@@ -8451,7 +8455,7 @@
         <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8469,19 +8473,19 @@
         <v>41</v>
       </c>
       <c r="AW44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
       </c>
       <c r="BA44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB44" t="n">
         <v>126</v>
@@ -8525,46 +8529,46 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N45" t="n">
+        <v>13</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P45" t="n">
         <v>4.33</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
         <v>1.62</v>
@@ -8582,7 +8586,7 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8591,13 +8595,13 @@
         <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8612,7 +8616,7 @@
         <v>23</v>
       </c>
       <c r="AJ45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK45" t="n">
         <v>41</v>
@@ -8630,7 +8634,7 @@
         <v>9.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
         <v>29</v>
@@ -8642,7 +8646,7 @@
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU45" t="n">
         <v>7.5</v>
@@ -8707,22 +8711,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8755,16 +8759,16 @@
         <v>2.25</v>
       </c>
       <c r="W46" t="n">
+        <v>10</v>
+      </c>
+      <c r="X46" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y46" t="n">
         <v>9.5</v>
       </c>
-      <c r="X46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>9</v>
-      </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8788,7 +8792,7 @@
         <v>151</v>
       </c>
       <c r="AH46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -8797,22 +8801,22 @@
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN46" t="n">
         <v>4.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
@@ -8836,16 +8840,16 @@
         <v>5</v>
       </c>
       <c r="AX46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ46" t="n">
         <v>51</v>
       </c>
       <c r="BA46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB46" t="n">
         <v>126</v>
@@ -8889,22 +8893,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -8913,40 +8917,40 @@
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T47" t="n">
         <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
         <v>10</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA47" t="n">
         <v>21</v>
@@ -8970,10 +8974,10 @@
         <v>151</v>
       </c>
       <c r="AH47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ47" t="n">
         <v>10</v>
@@ -8982,7 +8986,7 @@
         <v>26</v>
       </c>
       <c r="AL47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM47" t="n">
         <v>26</v>
@@ -8994,13 +8998,13 @@
         <v>15</v>
       </c>
       <c r="AP47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR47" t="n">
         <v>51</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>67</v>
       </c>
       <c r="AS47" t="n">
         <v>151</v>
@@ -9018,7 +9022,7 @@
         <v>4.75</v>
       </c>
       <c r="AX47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY47" t="n">
         <v>21</v>
@@ -9027,7 +9031,7 @@
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
@@ -9253,43 +9257,43 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
         <v>2.4</v>
       </c>
       <c r="L49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T49" t="n">
         <v>3.4</v>
@@ -9334,7 +9338,7 @@
         <v>151</v>
       </c>
       <c r="AH49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
         <v>9.5</v>
@@ -9435,7 +9439,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H50" t="n">
         <v>7</v>
@@ -9453,37 +9457,37 @@
         <v>10</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.62</v>
       </c>
-      <c r="R50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X50" t="n">
         <v>6</v>
@@ -9492,55 +9496,55 @@
         <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD50" t="n">
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF50" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
         <v>41</v>
       </c>
       <c r="AJ50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO50" t="n">
         <v>5.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ50" t="n">
         <v>13</v>
@@ -9549,13 +9553,13 @@
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV50" t="n">
         <v>67</v>
@@ -9570,13 +9574,13 @@
         <v>51</v>
       </c>
       <c r="AZ50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB50" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC50" t="n">
         <v>126</v>
@@ -9981,28 +9985,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
         <v>1.17</v>
@@ -10029,22 +10033,22 @@
         <v>2.5</v>
       </c>
       <c r="W53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
         <v>29</v>
       </c>
       <c r="AA53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC53" t="n">
         <v>15</v>
@@ -10056,22 +10060,22 @@
         <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG53" t="n">
         <v>101</v>
       </c>
       <c r="AH53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI53" t="n">
         <v>13</v>
       </c>
-      <c r="AI53" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL53" t="n">
         <v>17</v>
@@ -10083,10 +10087,10 @@
         <v>5</v>
       </c>
       <c r="AO53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -10163,13 +10167,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J54" t="n">
         <v>3.4</v>
@@ -10178,7 +10182,7 @@
         <v>1.95</v>
       </c>
       <c r="L54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.1</v>
@@ -10187,40 +10191,40 @@
         <v>7</v>
       </c>
       <c r="O54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S54" t="n">
         <v>1.5</v>
       </c>
-      <c r="P54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T54" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y54" t="n">
         <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA54" t="n">
         <v>23</v>
@@ -10235,34 +10239,34 @@
         <v>6</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
         <v>1250</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
         <v>13</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK54" t="n">
         <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM54" t="n">
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO54" t="n">
         <v>15</v>
@@ -10280,10 +10284,10 @@
         <v>251</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
         <v>67</v>
@@ -10292,19 +10296,19 @@
         <v>4.75</v>
       </c>
       <c r="AX54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC54" t="n">
         <v>81</v>
@@ -10345,76 +10349,76 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I55" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K55" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L55" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P55" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R55" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="S55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="U55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V55" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA55" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC55" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE55" t="n">
         <v>11.75</v>
@@ -10429,31 +10433,31 @@
         <v>11</v>
       </c>
       <c r="AI55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM55" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO55" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>17</v>
       </c>
       <c r="AP55" t="n">
         <v>20</v>
       </c>
       <c r="AQ55" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR55" t="n">
         <v>90</v>
@@ -10462,31 +10466,31 @@
         <v>200</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AU55" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY55" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ55" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BA55" t="n">
         <v>45</v>
       </c>
       <c r="BB55" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC55" t="n">
         <v>500</v>
@@ -10528,16 +10532,16 @@
         <v>1.57</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J56" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L56" t="n">
         <v>5</v>
@@ -10549,16 +10553,16 @@
         <v>8.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="Q56" t="n">
         <v>1.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S56" t="n">
         <v>1.31</v>
@@ -10567,97 +10571,97 @@
         <v>3.15</v>
       </c>
       <c r="U56" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V56" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W56" t="n">
         <v>8.75</v>
       </c>
       <c r="X56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y56" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z56" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA56" t="n">
         <v>11.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC56" t="n">
         <v>8.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE56" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF56" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG56" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AH56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI56" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="n">
         <v>16</v>
       </c>
       <c r="AK56" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL56" t="n">
         <v>45</v>
       </c>
       <c r="AM56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
         <v>45</v>
       </c>
       <c r="AS56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT56" t="n">
         <v>3.15</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV56" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AX56" t="n">
         <v>27</v>
       </c>
       <c r="AY56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ56" t="n">
         <v>150</v>
@@ -10666,7 +10670,7 @@
         <v>150</v>
       </c>
       <c r="BB56" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
@@ -10888,25 +10892,25 @@
         <v>1.36</v>
       </c>
       <c r="H58" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I58" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J58" t="n">
         <v>1.87</v>
       </c>
       <c r="K58" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L58" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
@@ -10924,7 +10928,7 @@
         <v>1.4</v>
       </c>
       <c r="T58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U58" t="n">
         <v>2.2</v>
@@ -10939,7 +10943,7 @@
         <v>5.8</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z58" t="n">
         <v>8.25</v>
@@ -10951,7 +10955,7 @@
         <v>35</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD58" t="n">
         <v>8.75</v>
@@ -10969,16 +10973,16 @@
         <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK58" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM58" t="n">
         <v>110</v>
@@ -10990,7 +10994,7 @@
         <v>6.2</v>
       </c>
       <c r="AP58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ58" t="n">
         <v>18</v>
@@ -11002,7 +11006,7 @@
         <v>350</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU58" t="n">
         <v>9.5</v>
@@ -11011,19 +11015,19 @@
         <v>110</v>
       </c>
       <c r="AW58" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AY58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ58" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA58" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB58" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -935,7 +935,7 @@
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
         <v>7.5</v>
@@ -950,31 +950,31 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
@@ -998,22 +998,22 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
@@ -1046,22 +1046,22 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>81</v>
       </c>
       <c r="BC3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1135,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1147,10 +1147,10 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1165,7 +1165,7 @@
         <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1189,16 +1189,16 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1234,7 +1234,7 @@
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1475,55 +1475,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.1</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1541,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1565,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1592,7 +1592,7 @@
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1604,16 +1604,16 @@
         <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1839,52 +1839,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1893,7 +1893,7 @@
         <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1902,10 +1902,10 @@
         <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1920,13 +1920,13 @@
         <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1938,13 +1938,13 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1980,13 +1980,13 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2063,22 +2063,22 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2087,7 +2087,7 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2102,28 +2102,28 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2135,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.38</v>
@@ -2147,22 +2147,22 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -3295,145 +3295,145 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="J16" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AA16" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM16" t="n">
         <v>32</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR16" t="n">
         <v>150</v>
       </c>
-      <c r="AR16" t="n">
-        <v>175</v>
-      </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AV16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA16" t="n">
         <v>80</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>70</v>
       </c>
       <c r="BB16" t="n">
         <v>300</v>
@@ -4203,40 +4203,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.2</v>
       </c>
-      <c r="I21" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4245,25 +4245,25 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
@@ -4272,46 +4272,46 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP21" t="n">
         <v>19</v>
       </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4323,28 +4323,28 @@
         <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4961,13 +4961,13 @@
         <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
         <v>23</v>
@@ -4994,10 +4994,10 @@
         <v>251</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -5012,10 +5012,10 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -9445,7 +9445,7 @@
         <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>1.67</v>
@@ -9454,7 +9454,7 @@
         <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.02</v>
@@ -9463,10 +9463,10 @@
         <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>1.57</v>
@@ -9481,19 +9481,19 @@
         <v>3.5</v>
       </c>
       <c r="U50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X50" t="n">
         <v>6</v>
       </c>
       <c r="Y50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z50" t="n">
         <v>7.5</v>
@@ -9571,7 +9571,7 @@
         <v>51</v>
       </c>
       <c r="AY50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ50" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-06.xlsx
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2233,10 +2233,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2251,25 +2251,25 @@
         <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>5.5</v>
@@ -2287,22 +2287,22 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
         <v>19</v>
